--- a/BackTest/2020-01-15 BackTest ARN.xlsx
+++ b/BackTest/2020-01-15 BackTest ARN.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -484,7 +484,7 @@
         <v>-16148.1247</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-16175.1247</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-16205.1247</v>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-16208.1247</v>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-16214.1247</v>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-16214.1247</v>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-16107.5247</v>
       </c>
       <c r="H11" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-16116.5247</v>
       </c>
       <c r="H12" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-16116.5247</v>
       </c>
       <c r="H13" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-16122.5247</v>
       </c>
       <c r="H15" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-16635.0549</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-16752.3711</v>
       </c>
       <c r="H27" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-16922.1665</v>
       </c>
       <c r="H29" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-16919.1665</v>
       </c>
       <c r="H30" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-16895.1665</v>
       </c>
       <c r="H35" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-16995.7085</v>
       </c>
       <c r="H38" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-17025.7085</v>
       </c>
       <c r="H39" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-17028.7085</v>
       </c>
       <c r="H40" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-17128.7085</v>
       </c>
       <c r="H41" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-17040.9501</v>
       </c>
       <c r="H42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-17137.9501</v>
       </c>
       <c r="H43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-17107.7001</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-17107.7001</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-17107.7001</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-17587.7001</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-17351.7001</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-17351.7001</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-17351.7001</v>
       </c>
       <c r="H50" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-17345.7001</v>
       </c>
       <c r="H51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>-16942.30300732999</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>-16843.50300732999</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-16480.50300732999</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>-16585.10490732999</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>-13864.72830732999</v>
       </c>
       <c r="H110" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>-13855.72830732999</v>
       </c>
       <c r="H111" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>-13855.72830732999</v>
       </c>
       <c r="H112" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>-13855.72830732999</v>
       </c>
       <c r="H113" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>-13855.72830732999</v>
       </c>
       <c r="H114" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>-14059.10620732999</v>
       </c>
       <c r="H115" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>-14587.28170732999</v>
       </c>
       <c r="H116" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>-14972.17860732999</v>
       </c>
       <c r="H117" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>-14972.17860732999</v>
       </c>
       <c r="H118" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>-15786.85340732999</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>-15786.85340732999</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>-14986.80840732999</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>-30889.75180663999</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>-29074.96280663999</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>-29071.96280663999</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>-29077.96280663999</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>-29019.84380663999</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>-32170.47900663999</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>-32111.82410663999</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>-32111.82410663999</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>-31872.62940663999</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>-31872.62940663999</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>-31872.62940663999</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>-31892.62940663999</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>-31892.62940663999</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>-31892.62940663999</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>-31898.62940663999</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>-53868.63290663999</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -8569,7 +8569,7 @@
         <v>-74208.02107738996</v>
       </c>
       <c r="H248" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8701,7 +8701,7 @@
         <v>-100985.12597739</v>
       </c>
       <c r="H252" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -10516,11 +10516,17 @@
         <v>-156563.46218313</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
-      </c>
-      <c r="I307" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I307" t="n">
+        <v>160.6</v>
+      </c>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -10549,11 +10555,17 @@
         <v>-155561.99258313</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
-      </c>
-      <c r="I308" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I308" t="n">
+        <v>158.1</v>
+      </c>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -10582,11 +10594,17 @@
         <v>-155786.7361831299</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
-      </c>
-      <c r="I309" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I309" t="n">
+        <v>159</v>
+      </c>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -10615,11 +10633,17 @@
         <v>-155138.7361831299</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
-      </c>
-      <c r="I310" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I310" t="n">
+        <v>158.1</v>
+      </c>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -10648,11 +10672,17 @@
         <v>-159173.2776831299</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
-      </c>
-      <c r="I311" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I311" t="n">
+        <v>160.6</v>
+      </c>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -10681,11 +10711,17 @@
         <v>-160292.3086831299</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
-      </c>
-      <c r="I312" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I312" t="n">
+        <v>158.1</v>
+      </c>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -10714,11 +10750,17 @@
         <v>-160280.3149831299</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
-      </c>
-      <c r="I313" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I313" t="n">
+        <v>156.2</v>
+      </c>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -10747,15 +10789,17 @@
         <v>-160280.3149831299</v>
       </c>
       <c r="H314" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I314" t="n">
         <v>156.4</v>
       </c>
-      <c r="J314" t="n">
-        <v>156.4</v>
-      </c>
-      <c r="K314" t="inlineStr"/>
+      <c r="J314" t="inlineStr"/>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -10784,17 +10828,15 @@
         <v>-156278.8709831299</v>
       </c>
       <c r="H315" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I315" t="n">
         <v>156.4</v>
       </c>
-      <c r="J315" t="n">
-        <v>156.4</v>
-      </c>
+      <c r="J315" t="inlineStr"/>
       <c r="K315" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L315" t="n">
@@ -10825,17 +10867,15 @@
         <v>-156278.8709831299</v>
       </c>
       <c r="H316" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I316" t="n">
         <v>158.1</v>
       </c>
-      <c r="J316" t="n">
-        <v>156.4</v>
-      </c>
+      <c r="J316" t="inlineStr"/>
       <c r="K316" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L316" t="n">
@@ -10866,17 +10906,15 @@
         <v>-155883.66181792</v>
       </c>
       <c r="H317" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I317" t="n">
         <v>158.1</v>
       </c>
-      <c r="J317" t="n">
-        <v>156.4</v>
-      </c>
+      <c r="J317" t="inlineStr"/>
       <c r="K317" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L317" t="n">
@@ -10907,14 +10945,12 @@
         <v>-151714.91048313</v>
       </c>
       <c r="H318" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I318" t="n">
         <v>159.3</v>
       </c>
-      <c r="J318" t="n">
-        <v>156.4</v>
-      </c>
+      <c r="J318" t="inlineStr"/>
       <c r="K318" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10948,14 +10984,12 @@
         <v>-157866.29548313</v>
       </c>
       <c r="H319" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I319" t="n">
         <v>161</v>
       </c>
-      <c r="J319" t="n">
-        <v>156.4</v>
-      </c>
+      <c r="J319" t="inlineStr"/>
       <c r="K319" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10989,14 +11023,12 @@
         <v>-157229.22338313</v>
       </c>
       <c r="H320" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I320" t="n">
         <v>159</v>
       </c>
-      <c r="J320" t="n">
-        <v>156.4</v>
-      </c>
+      <c r="J320" t="inlineStr"/>
       <c r="K320" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11030,12 +11062,12 @@
         <v>-157229.22338313</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
-      </c>
-      <c r="I321" t="inlineStr"/>
-      <c r="J321" t="n">
-        <v>156.4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I321" t="n">
+        <v>162.8</v>
+      </c>
+      <c r="J321" t="inlineStr"/>
       <c r="K321" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11069,12 +11101,12 @@
         <v>-148903.59078313</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
-      </c>
-      <c r="I322" t="inlineStr"/>
-      <c r="J322" t="n">
-        <v>156.4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I322" t="n">
+        <v>162.8</v>
+      </c>
+      <c r="J322" t="inlineStr"/>
       <c r="K322" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11111,9 +11143,7 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="n">
-        <v>156.4</v>
-      </c>
+      <c r="J323" t="inlineStr"/>
       <c r="K323" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11150,9 +11180,7 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="n">
-        <v>156.4</v>
-      </c>
+      <c r="J324" t="inlineStr"/>
       <c r="K324" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11189,9 +11217,7 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="n">
-        <v>156.4</v>
-      </c>
+      <c r="J325" t="inlineStr"/>
       <c r="K325" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11228,9 +11254,7 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="n">
-        <v>156.4</v>
-      </c>
+      <c r="J326" t="inlineStr"/>
       <c r="K326" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11267,9 +11291,7 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="n">
-        <v>156.4</v>
-      </c>
+      <c r="J327" t="inlineStr"/>
       <c r="K327" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11306,9 +11328,7 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="n">
-        <v>156.4</v>
-      </c>
+      <c r="J328" t="inlineStr"/>
       <c r="K328" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11345,9 +11365,7 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="n">
-        <v>156.4</v>
-      </c>
+      <c r="J329" t="inlineStr"/>
       <c r="K329" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11384,9 +11402,7 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="n">
-        <v>156.4</v>
-      </c>
+      <c r="J330" t="inlineStr"/>
       <c r="K330" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11423,9 +11439,7 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="n">
-        <v>156.4</v>
-      </c>
+      <c r="J331" t="inlineStr"/>
       <c r="K331" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11462,9 +11476,7 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="n">
-        <v>156.4</v>
-      </c>
+      <c r="J332" t="inlineStr"/>
       <c r="K332" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11501,9 +11513,7 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="n">
-        <v>156.4</v>
-      </c>
+      <c r="J333" t="inlineStr"/>
       <c r="K333" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11540,9 +11550,7 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="n">
-        <v>156.4</v>
-      </c>
+      <c r="J334" t="inlineStr"/>
       <c r="K334" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11579,9 +11587,7 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="n">
-        <v>156.4</v>
-      </c>
+      <c r="J335" t="inlineStr"/>
       <c r="K335" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11618,9 +11624,7 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="n">
-        <v>156.4</v>
-      </c>
+      <c r="J336" t="inlineStr"/>
       <c r="K336" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11657,9 +11661,7 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="n">
-        <v>156.4</v>
-      </c>
+      <c r="J337" t="inlineStr"/>
       <c r="K337" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11696,9 +11698,7 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="n">
-        <v>156.4</v>
-      </c>
+      <c r="J338" t="inlineStr"/>
       <c r="K338" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11735,9 +11735,7 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="n">
-        <v>156.4</v>
-      </c>
+      <c r="J339" t="inlineStr"/>
       <c r="K339" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11774,9 +11772,7 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="n">
-        <v>156.4</v>
-      </c>
+      <c r="J340" t="inlineStr"/>
       <c r="K340" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11813,9 +11809,7 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="n">
-        <v>156.4</v>
-      </c>
+      <c r="J341" t="inlineStr"/>
       <c r="K341" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11852,9 +11846,7 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="n">
-        <v>156.4</v>
-      </c>
+      <c r="J342" t="inlineStr"/>
       <c r="K342" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11891,9 +11883,7 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="n">
-        <v>156.4</v>
-      </c>
+      <c r="J343" t="inlineStr"/>
       <c r="K343" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11930,9 +11920,7 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="n">
-        <v>156.4</v>
-      </c>
+      <c r="J344" t="inlineStr"/>
       <c r="K344" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11969,9 +11957,7 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="n">
-        <v>156.4</v>
-      </c>
+      <c r="J345" t="inlineStr"/>
       <c r="K345" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12008,9 +11994,7 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="n">
-        <v>156.4</v>
-      </c>
+      <c r="J346" t="inlineStr"/>
       <c r="K346" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12047,9 +12031,7 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="n">
-        <v>156.4</v>
-      </c>
+      <c r="J347" t="inlineStr"/>
       <c r="K347" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12086,9 +12068,7 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="n">
-        <v>156.4</v>
-      </c>
+      <c r="J348" t="inlineStr"/>
       <c r="K348" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12125,9 +12105,7 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="n">
-        <v>156.4</v>
-      </c>
+      <c r="J349" t="inlineStr"/>
       <c r="K349" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12164,9 +12142,7 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="n">
-        <v>156.4</v>
-      </c>
+      <c r="J350" t="inlineStr"/>
       <c r="K350" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12203,9 +12179,7 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="n">
-        <v>156.4</v>
-      </c>
+      <c r="J351" t="inlineStr"/>
       <c r="K351" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12242,9 +12216,7 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="n">
-        <v>156.4</v>
-      </c>
+      <c r="J352" t="inlineStr"/>
       <c r="K352" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12281,9 +12253,7 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="n">
-        <v>156.4</v>
-      </c>
+      <c r="J353" t="inlineStr"/>
       <c r="K353" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12320,9 +12290,7 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="n">
-        <v>156.4</v>
-      </c>
+      <c r="J354" t="inlineStr"/>
       <c r="K354" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12359,9 +12327,7 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="n">
-        <v>156.4</v>
-      </c>
+      <c r="J355" t="inlineStr"/>
       <c r="K355" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12398,9 +12364,7 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="n">
-        <v>156.4</v>
-      </c>
+      <c r="J356" t="inlineStr"/>
       <c r="K356" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12437,9 +12401,7 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="n">
-        <v>156.4</v>
-      </c>
+      <c r="J357" t="inlineStr"/>
       <c r="K357" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12476,9 +12438,7 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="n">
-        <v>156.4</v>
-      </c>
+      <c r="J358" t="inlineStr"/>
       <c r="K358" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12515,9 +12475,7 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="n">
-        <v>156.4</v>
-      </c>
+      <c r="J359" t="inlineStr"/>
       <c r="K359" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12554,9 +12512,7 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="n">
-        <v>156.4</v>
-      </c>
+      <c r="J360" t="inlineStr"/>
       <c r="K360" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12593,9 +12549,7 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="n">
-        <v>156.4</v>
-      </c>
+      <c r="J361" t="inlineStr"/>
       <c r="K361" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12632,9 +12586,7 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="n">
-        <v>156.4</v>
-      </c>
+      <c r="J362" t="inlineStr"/>
       <c r="K362" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12671,9 +12623,7 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="n">
-        <v>156.4</v>
-      </c>
+      <c r="J363" t="inlineStr"/>
       <c r="K363" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12710,9 +12660,7 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="n">
-        <v>156.4</v>
-      </c>
+      <c r="J364" t="inlineStr"/>
       <c r="K364" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12749,9 +12697,7 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="n">
-        <v>156.4</v>
-      </c>
+      <c r="J365" t="inlineStr"/>
       <c r="K365" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12788,9 +12734,7 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="n">
-        <v>156.4</v>
-      </c>
+      <c r="J366" t="inlineStr"/>
       <c r="K366" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12827,9 +12771,7 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="n">
-        <v>156.4</v>
-      </c>
+      <c r="J367" t="inlineStr"/>
       <c r="K367" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12866,9 +12808,7 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="n">
-        <v>156.4</v>
-      </c>
+      <c r="J368" t="inlineStr"/>
       <c r="K368" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12905,9 +12845,7 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="n">
-        <v>156.4</v>
-      </c>
+      <c r="J369" t="inlineStr"/>
       <c r="K369" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12944,9 +12882,7 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="n">
-        <v>156.4</v>
-      </c>
+      <c r="J370" t="inlineStr"/>
       <c r="K370" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12983,9 +12919,7 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="n">
-        <v>156.4</v>
-      </c>
+      <c r="J371" t="inlineStr"/>
       <c r="K371" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13022,9 +12956,7 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="n">
-        <v>156.4</v>
-      </c>
+      <c r="J372" t="inlineStr"/>
       <c r="K372" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13061,9 +12993,7 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="n">
-        <v>156.4</v>
-      </c>
+      <c r="J373" t="inlineStr"/>
       <c r="K373" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13100,9 +13030,7 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="n">
-        <v>156.4</v>
-      </c>
+      <c r="J374" t="inlineStr"/>
       <c r="K374" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13139,9 +13067,7 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="n">
-        <v>156.4</v>
-      </c>
+      <c r="J375" t="inlineStr"/>
       <c r="K375" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13178,9 +13104,7 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="n">
-        <v>156.4</v>
-      </c>
+      <c r="J376" t="inlineStr"/>
       <c r="K376" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13217,9 +13141,7 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="n">
-        <v>156.4</v>
-      </c>
+      <c r="J377" t="inlineStr"/>
       <c r="K377" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13256,9 +13178,7 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="n">
-        <v>156.4</v>
-      </c>
+      <c r="J378" t="inlineStr"/>
       <c r="K378" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13295,9 +13215,7 @@
         <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="n">
-        <v>156.4</v>
-      </c>
+      <c r="J379" t="inlineStr"/>
       <c r="K379" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13334,9 +13252,7 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="n">
-        <v>156.4</v>
-      </c>
+      <c r="J380" t="inlineStr"/>
       <c r="K380" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13373,9 +13289,7 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="n">
-        <v>156.4</v>
-      </c>
+      <c r="J381" t="inlineStr"/>
       <c r="K381" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13412,9 +13326,7 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="n">
-        <v>156.4</v>
-      </c>
+      <c r="J382" t="inlineStr"/>
       <c r="K382" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13451,9 +13363,7 @@
         <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="n">
-        <v>156.4</v>
-      </c>
+      <c r="J383" t="inlineStr"/>
       <c r="K383" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13490,9 +13400,7 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="n">
-        <v>156.4</v>
-      </c>
+      <c r="J384" t="inlineStr"/>
       <c r="K384" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13529,9 +13437,7 @@
         <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="n">
-        <v>156.4</v>
-      </c>
+      <c r="J385" t="inlineStr"/>
       <c r="K385" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13568,9 +13474,7 @@
         <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="n">
-        <v>156.4</v>
-      </c>
+      <c r="J386" t="inlineStr"/>
       <c r="K386" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13607,9 +13511,7 @@
         <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="n">
-        <v>156.4</v>
-      </c>
+      <c r="J387" t="inlineStr"/>
       <c r="K387" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13646,9 +13548,7 @@
         <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="n">
-        <v>156.4</v>
-      </c>
+      <c r="J388" t="inlineStr"/>
       <c r="K388" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13685,9 +13585,7 @@
         <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="n">
-        <v>156.4</v>
-      </c>
+      <c r="J389" t="inlineStr"/>
       <c r="K389" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13724,9 +13622,7 @@
         <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="n">
-        <v>156.4</v>
-      </c>
+      <c r="J390" t="inlineStr"/>
       <c r="K390" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13763,9 +13659,7 @@
         <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="n">
-        <v>156.4</v>
-      </c>
+      <c r="J391" t="inlineStr"/>
       <c r="K391" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13802,9 +13696,7 @@
         <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="n">
-        <v>156.4</v>
-      </c>
+      <c r="J392" t="inlineStr"/>
       <c r="K392" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13841,9 +13733,7 @@
         <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="n">
-        <v>156.4</v>
-      </c>
+      <c r="J393" t="inlineStr"/>
       <c r="K393" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13880,9 +13770,7 @@
         <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="n">
-        <v>156.4</v>
-      </c>
+      <c r="J394" t="inlineStr"/>
       <c r="K394" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13919,9 +13807,7 @@
         <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="n">
-        <v>156.4</v>
-      </c>
+      <c r="J395" t="inlineStr"/>
       <c r="K395" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13958,9 +13844,7 @@
         <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="n">
-        <v>156.4</v>
-      </c>
+      <c r="J396" t="inlineStr"/>
       <c r="K396" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13997,9 +13881,7 @@
         <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="n">
-        <v>156.4</v>
-      </c>
+      <c r="J397" t="inlineStr"/>
       <c r="K397" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14036,9 +13918,7 @@
         <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="n">
-        <v>156.4</v>
-      </c>
+      <c r="J398" t="inlineStr"/>
       <c r="K398" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14075,9 +13955,7 @@
         <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="n">
-        <v>156.4</v>
-      </c>
+      <c r="J399" t="inlineStr"/>
       <c r="K399" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14114,9 +13992,7 @@
         <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="n">
-        <v>156.4</v>
-      </c>
+      <c r="J400" t="inlineStr"/>
       <c r="K400" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14153,9 +14029,7 @@
         <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="n">
-        <v>156.4</v>
-      </c>
+      <c r="J401" t="inlineStr"/>
       <c r="K401" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14192,9 +14066,7 @@
         <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="n">
-        <v>156.4</v>
-      </c>
+      <c r="J402" t="inlineStr"/>
       <c r="K402" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14231,9 +14103,7 @@
         <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="n">
-        <v>156.4</v>
-      </c>
+      <c r="J403" t="inlineStr"/>
       <c r="K403" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14270,9 +14140,7 @@
         <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="n">
-        <v>156.4</v>
-      </c>
+      <c r="J404" t="inlineStr"/>
       <c r="K404" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14309,9 +14177,7 @@
         <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="n">
-        <v>156.4</v>
-      </c>
+      <c r="J405" t="inlineStr"/>
       <c r="K405" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14348,9 +14214,7 @@
         <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="n">
-        <v>156.4</v>
-      </c>
+      <c r="J406" t="inlineStr"/>
       <c r="K406" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14387,9 +14251,7 @@
         <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="n">
-        <v>156.4</v>
-      </c>
+      <c r="J407" t="inlineStr"/>
       <c r="K407" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14426,9 +14288,7 @@
         <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="n">
-        <v>156.4</v>
-      </c>
+      <c r="J408" t="inlineStr"/>
       <c r="K408" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14465,9 +14325,7 @@
         <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="n">
-        <v>156.4</v>
-      </c>
+      <c r="J409" t="inlineStr"/>
       <c r="K409" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14504,9 +14362,7 @@
         <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="n">
-        <v>156.4</v>
-      </c>
+      <c r="J410" t="inlineStr"/>
       <c r="K410" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14543,9 +14399,7 @@
         <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="n">
-        <v>156.4</v>
-      </c>
+      <c r="J411" t="inlineStr"/>
       <c r="K411" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14582,9 +14436,7 @@
         <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="n">
-        <v>156.4</v>
-      </c>
+      <c r="J412" t="inlineStr"/>
       <c r="K412" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14621,9 +14473,7 @@
         <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
-      <c r="J413" t="n">
-        <v>156.4</v>
-      </c>
+      <c r="J413" t="inlineStr"/>
       <c r="K413" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14660,9 +14510,7 @@
         <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
-      <c r="J414" t="n">
-        <v>156.4</v>
-      </c>
+      <c r="J414" t="inlineStr"/>
       <c r="K414" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14699,9 +14547,7 @@
         <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
-      <c r="J415" t="n">
-        <v>156.4</v>
-      </c>
+      <c r="J415" t="inlineStr"/>
       <c r="K415" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14738,9 +14584,7 @@
         <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
-      <c r="J416" t="n">
-        <v>156.4</v>
-      </c>
+      <c r="J416" t="inlineStr"/>
       <c r="K416" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14777,9 +14621,7 @@
         <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
-      <c r="J417" t="n">
-        <v>156.4</v>
-      </c>
+      <c r="J417" t="inlineStr"/>
       <c r="K417" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14816,9 +14658,7 @@
         <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
-      <c r="J418" t="n">
-        <v>156.4</v>
-      </c>
+      <c r="J418" t="inlineStr"/>
       <c r="K418" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14855,9 +14695,7 @@
         <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
-      <c r="J419" t="n">
-        <v>156.4</v>
-      </c>
+      <c r="J419" t="inlineStr"/>
       <c r="K419" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14894,9 +14732,7 @@
         <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
-      <c r="J420" t="n">
-        <v>156.4</v>
-      </c>
+      <c r="J420" t="inlineStr"/>
       <c r="K420" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14930,12 +14766,12 @@
         <v>-198467.6492801099</v>
       </c>
       <c r="H421" t="n">
-        <v>0</v>
-      </c>
-      <c r="I421" t="inlineStr"/>
-      <c r="J421" t="n">
-        <v>156.4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I421" t="n">
+        <v>160.4</v>
+      </c>
+      <c r="J421" t="inlineStr"/>
       <c r="K421" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14972,9 +14808,7 @@
         <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
-      <c r="J422" t="n">
-        <v>156.4</v>
-      </c>
+      <c r="J422" t="inlineStr"/>
       <c r="K422" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15011,9 +14845,7 @@
         <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
-      <c r="J423" t="n">
-        <v>156.4</v>
-      </c>
+      <c r="J423" t="inlineStr"/>
       <c r="K423" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15050,9 +14882,7 @@
         <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="n">
-        <v>156.4</v>
-      </c>
+      <c r="J424" t="inlineStr"/>
       <c r="K424" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15089,9 +14919,7 @@
         <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="n">
-        <v>156.4</v>
-      </c>
+      <c r="J425" t="inlineStr"/>
       <c r="K425" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15128,9 +14956,7 @@
         <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="n">
-        <v>156.4</v>
-      </c>
+      <c r="J426" t="inlineStr"/>
       <c r="K426" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15167,9 +14993,7 @@
         <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="n">
-        <v>156.4</v>
-      </c>
+      <c r="J427" t="inlineStr"/>
       <c r="K427" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15203,12 +15027,12 @@
         <v>-199900.20500983</v>
       </c>
       <c r="H428" t="n">
-        <v>0</v>
-      </c>
-      <c r="I428" t="inlineStr"/>
-      <c r="J428" t="n">
-        <v>156.4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I428" t="n">
+        <v>159.3</v>
+      </c>
+      <c r="J428" t="inlineStr"/>
       <c r="K428" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15242,12 +15066,12 @@
         <v>-199906.20500983</v>
       </c>
       <c r="H429" t="n">
-        <v>0</v>
-      </c>
-      <c r="I429" t="inlineStr"/>
-      <c r="J429" t="n">
-        <v>156.4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I429" t="n">
+        <v>162.5</v>
+      </c>
+      <c r="J429" t="inlineStr"/>
       <c r="K429" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15281,12 +15105,12 @@
         <v>-199902.20500983</v>
       </c>
       <c r="H430" t="n">
-        <v>0</v>
-      </c>
-      <c r="I430" t="inlineStr"/>
-      <c r="J430" t="n">
-        <v>156.4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I430" t="n">
+        <v>162.2</v>
+      </c>
+      <c r="J430" t="inlineStr"/>
       <c r="K430" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15320,12 +15144,12 @@
         <v>-200793.43500983</v>
       </c>
       <c r="H431" t="n">
-        <v>0</v>
-      </c>
-      <c r="I431" t="inlineStr"/>
-      <c r="J431" t="n">
-        <v>156.4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I431" t="n">
+        <v>163.6</v>
+      </c>
+      <c r="J431" t="inlineStr"/>
       <c r="K431" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15359,12 +15183,12 @@
         <v>-200785.43500983</v>
       </c>
       <c r="H432" t="n">
-        <v>0</v>
-      </c>
-      <c r="I432" t="inlineStr"/>
-      <c r="J432" t="n">
-        <v>156.4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I432" t="n">
+        <v>160.7</v>
+      </c>
+      <c r="J432" t="inlineStr"/>
       <c r="K432" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15398,12 +15222,12 @@
         <v>-200812.2602105699</v>
       </c>
       <c r="H433" t="n">
-        <v>0</v>
-      </c>
-      <c r="I433" t="inlineStr"/>
-      <c r="J433" t="n">
-        <v>156.4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I433" t="n">
+        <v>161.9</v>
+      </c>
+      <c r="J433" t="inlineStr"/>
       <c r="K433" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15437,14 +15261,12 @@
         <v>-200755.5426105699</v>
       </c>
       <c r="H434" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I434" t="n">
         <v>159.4</v>
       </c>
-      <c r="J434" t="n">
-        <v>156.4</v>
-      </c>
+      <c r="J434" t="inlineStr"/>
       <c r="K434" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15478,14 +15300,12 @@
         <v>-200751.5426105699</v>
       </c>
       <c r="H435" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I435" t="n">
         <v>161.9</v>
       </c>
-      <c r="J435" t="n">
-        <v>156.4</v>
-      </c>
+      <c r="J435" t="inlineStr"/>
       <c r="K435" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15519,12 +15339,12 @@
         <v>-199543.75051057</v>
       </c>
       <c r="H436" t="n">
-        <v>0</v>
-      </c>
-      <c r="I436" t="inlineStr"/>
-      <c r="J436" t="n">
-        <v>156.4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I436" t="n">
+        <v>164.5</v>
+      </c>
+      <c r="J436" t="inlineStr"/>
       <c r="K436" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15558,12 +15378,12 @@
         <v>-200097.75051057</v>
       </c>
       <c r="H437" t="n">
-        <v>0</v>
-      </c>
-      <c r="I437" t="inlineStr"/>
-      <c r="J437" t="n">
-        <v>156.4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I437" t="n">
+        <v>165.1</v>
+      </c>
+      <c r="J437" t="inlineStr"/>
       <c r="K437" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15597,12 +15417,12 @@
         <v>-200101.48541057</v>
       </c>
       <c r="H438" t="n">
-        <v>0</v>
-      </c>
-      <c r="I438" t="inlineStr"/>
-      <c r="J438" t="n">
-        <v>156.4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I438" t="n">
+        <v>165</v>
+      </c>
+      <c r="J438" t="inlineStr"/>
       <c r="K438" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15636,12 +15456,12 @@
         <v>-200543.62081057</v>
       </c>
       <c r="H439" t="n">
-        <v>0</v>
-      </c>
-      <c r="I439" t="inlineStr"/>
-      <c r="J439" t="n">
-        <v>156.4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I439" t="n">
+        <v>164.4</v>
+      </c>
+      <c r="J439" t="inlineStr"/>
       <c r="K439" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15675,12 +15495,12 @@
         <v>-200074.62081057</v>
       </c>
       <c r="H440" t="n">
-        <v>0</v>
-      </c>
-      <c r="I440" t="inlineStr"/>
-      <c r="J440" t="n">
-        <v>156.4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I440" t="n">
+        <v>161.2</v>
+      </c>
+      <c r="J440" t="inlineStr"/>
       <c r="K440" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15714,14 +15534,12 @@
         <v>-199854.93031057</v>
       </c>
       <c r="H441" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I441" t="n">
         <v>162.8</v>
       </c>
-      <c r="J441" t="n">
-        <v>156.4</v>
-      </c>
+      <c r="J441" t="inlineStr"/>
       <c r="K441" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15755,14 +15573,12 @@
         <v>-199854.93031057</v>
       </c>
       <c r="H442" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I442" t="n">
         <v>165</v>
       </c>
-      <c r="J442" t="n">
-        <v>156.4</v>
-      </c>
+      <c r="J442" t="inlineStr"/>
       <c r="K442" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15796,14 +15612,12 @@
         <v>-184405.16871117</v>
       </c>
       <c r="H443" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I443" t="n">
         <v>165</v>
       </c>
-      <c r="J443" t="n">
-        <v>156.4</v>
-      </c>
+      <c r="J443" t="inlineStr"/>
       <c r="K443" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15840,9 +15654,7 @@
         <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="n">
-        <v>156.4</v>
-      </c>
+      <c r="J444" t="inlineStr"/>
       <c r="K444" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15879,9 +15691,7 @@
         <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="n">
-        <v>156.4</v>
-      </c>
+      <c r="J445" t="inlineStr"/>
       <c r="K445" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15918,9 +15728,7 @@
         <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="n">
-        <v>156.4</v>
-      </c>
+      <c r="J446" t="inlineStr"/>
       <c r="K446" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15957,9 +15765,7 @@
         <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="n">
-        <v>156.4</v>
-      </c>
+      <c r="J447" t="inlineStr"/>
       <c r="K447" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15993,12 +15799,12 @@
         <v>-184390.06891117</v>
       </c>
       <c r="H448" t="n">
-        <v>0</v>
-      </c>
-      <c r="I448" t="inlineStr"/>
-      <c r="J448" t="n">
-        <v>156.4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I448" t="n">
+        <v>168.4</v>
+      </c>
+      <c r="J448" t="inlineStr"/>
       <c r="K448" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16032,14 +15838,12 @@
         <v>-189624.64651117</v>
       </c>
       <c r="H449" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I449" t="n">
         <v>168.4</v>
       </c>
-      <c r="J449" t="n">
-        <v>156.4</v>
-      </c>
+      <c r="J449" t="inlineStr"/>
       <c r="K449" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16073,12 +15877,12 @@
         <v>-189568.64671117</v>
       </c>
       <c r="H450" t="n">
-        <v>0</v>
-      </c>
-      <c r="I450" t="inlineStr"/>
-      <c r="J450" t="n">
-        <v>156.4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I450" t="n">
+        <v>164.1</v>
+      </c>
+      <c r="J450" t="inlineStr"/>
       <c r="K450" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16112,14 +15916,12 @@
         <v>-197365.36001117</v>
       </c>
       <c r="H451" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I451" t="n">
         <v>168.3</v>
       </c>
-      <c r="J451" t="n">
-        <v>156.4</v>
-      </c>
+      <c r="J451" t="inlineStr"/>
       <c r="K451" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16153,12 +15955,12 @@
         <v>-197362.36001117</v>
       </c>
       <c r="H452" t="n">
-        <v>0</v>
-      </c>
-      <c r="I452" t="inlineStr"/>
-      <c r="J452" t="n">
-        <v>156.4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I452" t="n">
+        <v>161.9</v>
+      </c>
+      <c r="J452" t="inlineStr"/>
       <c r="K452" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16195,9 +15997,7 @@
         <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
-      <c r="J453" t="n">
-        <v>156.4</v>
-      </c>
+      <c r="J453" t="inlineStr"/>
       <c r="K453" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16231,12 +16031,12 @@
         <v>-199912.23121117</v>
       </c>
       <c r="H454" t="n">
-        <v>0</v>
-      </c>
-      <c r="I454" t="inlineStr"/>
-      <c r="J454" t="n">
-        <v>156.4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I454" t="n">
+        <v>161.9</v>
+      </c>
+      <c r="J454" t="inlineStr"/>
       <c r="K454" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16270,12 +16070,12 @@
         <v>-199239.75791117</v>
       </c>
       <c r="H455" t="n">
-        <v>0</v>
-      </c>
-      <c r="I455" t="inlineStr"/>
-      <c r="J455" t="n">
-        <v>156.4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I455" t="n">
+        <v>162</v>
+      </c>
+      <c r="J455" t="inlineStr"/>
       <c r="K455" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16309,12 +16109,12 @@
         <v>-199239.75791117</v>
       </c>
       <c r="H456" t="n">
-        <v>0</v>
-      </c>
-      <c r="I456" t="inlineStr"/>
-      <c r="J456" t="n">
-        <v>156.4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I456" t="n">
+        <v>163</v>
+      </c>
+      <c r="J456" t="inlineStr"/>
       <c r="K456" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16348,12 +16148,12 @@
         <v>-199233.75791117</v>
       </c>
       <c r="H457" t="n">
-        <v>0</v>
-      </c>
-      <c r="I457" t="inlineStr"/>
-      <c r="J457" t="n">
-        <v>156.4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I457" t="n">
+        <v>163</v>
+      </c>
+      <c r="J457" t="inlineStr"/>
       <c r="K457" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16387,12 +16187,12 @@
         <v>-199239.75791117</v>
       </c>
       <c r="H458" t="n">
-        <v>0</v>
-      </c>
-      <c r="I458" t="inlineStr"/>
-      <c r="J458" t="n">
-        <v>156.4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I458" t="n">
+        <v>166.9</v>
+      </c>
+      <c r="J458" t="inlineStr"/>
       <c r="K458" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16429,9 +16229,7 @@
         <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
-      <c r="J459" t="n">
-        <v>156.4</v>
-      </c>
+      <c r="J459" t="inlineStr"/>
       <c r="K459" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16465,12 +16263,12 @@
         <v>-201979.38521117</v>
       </c>
       <c r="H460" t="n">
-        <v>0</v>
-      </c>
-      <c r="I460" t="inlineStr"/>
-      <c r="J460" t="n">
-        <v>156.4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I460" t="n">
+        <v>163</v>
+      </c>
+      <c r="J460" t="inlineStr"/>
       <c r="K460" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16504,12 +16302,12 @@
         <v>-201979.38521117</v>
       </c>
       <c r="H461" t="n">
-        <v>0</v>
-      </c>
-      <c r="I461" t="inlineStr"/>
-      <c r="J461" t="n">
-        <v>156.4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I461" t="n">
+        <v>161.9</v>
+      </c>
+      <c r="J461" t="inlineStr"/>
       <c r="K461" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16543,12 +16341,12 @@
         <v>-201979.38521117</v>
       </c>
       <c r="H462" t="n">
-        <v>0</v>
-      </c>
-      <c r="I462" t="inlineStr"/>
-      <c r="J462" t="n">
-        <v>156.4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I462" t="n">
+        <v>161.9</v>
+      </c>
+      <c r="J462" t="inlineStr"/>
       <c r="K462" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16582,12 +16380,12 @@
         <v>-200740.17021117</v>
       </c>
       <c r="H463" t="n">
-        <v>0</v>
-      </c>
-      <c r="I463" t="inlineStr"/>
-      <c r="J463" t="n">
-        <v>156.4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I463" t="n">
+        <v>161.9</v>
+      </c>
+      <c r="J463" t="inlineStr"/>
       <c r="K463" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16621,12 +16419,12 @@
         <v>-200737.07021117</v>
       </c>
       <c r="H464" t="n">
-        <v>0</v>
-      </c>
-      <c r="I464" t="inlineStr"/>
-      <c r="J464" t="n">
-        <v>156.4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I464" t="n">
+        <v>164.9</v>
+      </c>
+      <c r="J464" t="inlineStr"/>
       <c r="K464" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16660,12 +16458,12 @@
         <v>-200967.71301117</v>
       </c>
       <c r="H465" t="n">
-        <v>0</v>
-      </c>
-      <c r="I465" t="inlineStr"/>
-      <c r="J465" t="n">
-        <v>156.4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I465" t="n">
+        <v>166.4</v>
+      </c>
+      <c r="J465" t="inlineStr"/>
       <c r="K465" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16699,12 +16497,12 @@
         <v>-200964.6130111699</v>
       </c>
       <c r="H466" t="n">
-        <v>0</v>
-      </c>
-      <c r="I466" t="inlineStr"/>
-      <c r="J466" t="n">
-        <v>156.4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I466" t="n">
+        <v>165</v>
+      </c>
+      <c r="J466" t="inlineStr"/>
       <c r="K466" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16738,12 +16536,12 @@
         <v>-201514.6130111699</v>
       </c>
       <c r="H467" t="n">
-        <v>0</v>
-      </c>
-      <c r="I467" t="inlineStr"/>
-      <c r="J467" t="n">
-        <v>156.4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I467" t="n">
+        <v>166.3</v>
+      </c>
+      <c r="J467" t="inlineStr"/>
       <c r="K467" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16777,12 +16575,12 @@
         <v>-200742.53971117</v>
       </c>
       <c r="H468" t="n">
-        <v>0</v>
-      </c>
-      <c r="I468" t="inlineStr"/>
-      <c r="J468" t="n">
-        <v>156.4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I468" t="n">
+        <v>165</v>
+      </c>
+      <c r="J468" t="inlineStr"/>
       <c r="K468" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16819,9 +16617,7 @@
         <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
-      <c r="J469" t="n">
-        <v>156.4</v>
-      </c>
+      <c r="J469" t="inlineStr"/>
       <c r="K469" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16855,12 +16651,12 @@
         <v>-201252.95931117</v>
       </c>
       <c r="H470" t="n">
-        <v>0</v>
-      </c>
-      <c r="I470" t="inlineStr"/>
-      <c r="J470" t="n">
-        <v>156.4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I470" t="n">
+        <v>165.7</v>
+      </c>
+      <c r="J470" t="inlineStr"/>
       <c r="K470" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16894,12 +16690,12 @@
         <v>-202437.4133111699</v>
       </c>
       <c r="H471" t="n">
-        <v>0</v>
-      </c>
-      <c r="I471" t="inlineStr"/>
-      <c r="J471" t="n">
-        <v>156.4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I471" t="n">
+        <v>165.6</v>
+      </c>
+      <c r="J471" t="inlineStr"/>
       <c r="K471" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16933,12 +16729,12 @@
         <v>-205602.7164111699</v>
       </c>
       <c r="H472" t="n">
-        <v>0</v>
-      </c>
-      <c r="I472" t="inlineStr"/>
-      <c r="J472" t="n">
-        <v>156.4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I472" t="n">
+        <v>162.1</v>
+      </c>
+      <c r="J472" t="inlineStr"/>
       <c r="K472" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16972,12 +16768,12 @@
         <v>-205598.7164111699</v>
       </c>
       <c r="H473" t="n">
-        <v>0</v>
-      </c>
-      <c r="I473" t="inlineStr"/>
-      <c r="J473" t="n">
-        <v>156.4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I473" t="n">
+        <v>161.3</v>
+      </c>
+      <c r="J473" t="inlineStr"/>
       <c r="K473" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17011,12 +16807,12 @@
         <v>-206784.1704111699</v>
       </c>
       <c r="H474" t="n">
-        <v>0</v>
-      </c>
-      <c r="I474" t="inlineStr"/>
-      <c r="J474" t="n">
-        <v>156.4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I474" t="n">
+        <v>164.9</v>
+      </c>
+      <c r="J474" t="inlineStr"/>
       <c r="K474" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17050,12 +16846,12 @@
         <v>-206775.1704111699</v>
       </c>
       <c r="H475" t="n">
-        <v>0</v>
-      </c>
-      <c r="I475" t="inlineStr"/>
-      <c r="J475" t="n">
-        <v>156.4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I475" t="n">
+        <v>164.7</v>
+      </c>
+      <c r="J475" t="inlineStr"/>
       <c r="K475" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17089,12 +16885,12 @@
         <v>-206778.2137111699</v>
       </c>
       <c r="H476" t="n">
-        <v>0</v>
-      </c>
-      <c r="I476" t="inlineStr"/>
-      <c r="J476" t="n">
-        <v>156.4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I476" t="n">
+        <v>164.8</v>
+      </c>
+      <c r="J476" t="inlineStr"/>
       <c r="K476" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17128,12 +16924,12 @@
         <v>-206778.2137111699</v>
       </c>
       <c r="H477" t="n">
-        <v>0</v>
-      </c>
-      <c r="I477" t="inlineStr"/>
-      <c r="J477" t="n">
-        <v>156.4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I477" t="n">
+        <v>164.3</v>
+      </c>
+      <c r="J477" t="inlineStr"/>
       <c r="K477" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17167,12 +16963,12 @@
         <v>-199754.8088111699</v>
       </c>
       <c r="H478" t="n">
-        <v>0</v>
-      </c>
-      <c r="I478" t="inlineStr"/>
-      <c r="J478" t="n">
-        <v>156.4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I478" t="n">
+        <v>164.3</v>
+      </c>
+      <c r="J478" t="inlineStr"/>
       <c r="K478" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17206,12 +17002,12 @@
         <v>-199754.8088111699</v>
       </c>
       <c r="H479" t="n">
-        <v>0</v>
-      </c>
-      <c r="I479" t="inlineStr"/>
-      <c r="J479" t="n">
-        <v>156.4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I479" t="n">
+        <v>164.7</v>
+      </c>
+      <c r="J479" t="inlineStr"/>
       <c r="K479" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17245,12 +17041,12 @@
         <v>-199751.7188111699</v>
       </c>
       <c r="H480" t="n">
-        <v>0</v>
-      </c>
-      <c r="I480" t="inlineStr"/>
-      <c r="J480" t="n">
-        <v>156.4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I480" t="n">
+        <v>164.7</v>
+      </c>
+      <c r="J480" t="inlineStr"/>
       <c r="K480" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17284,12 +17080,12 @@
         <v>-200143.4106111699</v>
       </c>
       <c r="H481" t="n">
-        <v>0</v>
-      </c>
-      <c r="I481" t="inlineStr"/>
-      <c r="J481" t="n">
-        <v>156.4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I481" t="n">
+        <v>164.9</v>
+      </c>
+      <c r="J481" t="inlineStr"/>
       <c r="K481" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17323,12 +17119,12 @@
         <v>-200134.4106111699</v>
       </c>
       <c r="H482" t="n">
-        <v>0</v>
-      </c>
-      <c r="I482" t="inlineStr"/>
-      <c r="J482" t="n">
-        <v>156.4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I482" t="n">
+        <v>164.7</v>
+      </c>
+      <c r="J482" t="inlineStr"/>
       <c r="K482" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17362,12 +17158,12 @@
         <v>-200134.4106111699</v>
       </c>
       <c r="H483" t="n">
-        <v>0</v>
-      </c>
-      <c r="I483" t="inlineStr"/>
-      <c r="J483" t="n">
-        <v>156.4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I483" t="n">
+        <v>164.9</v>
+      </c>
+      <c r="J483" t="inlineStr"/>
       <c r="K483" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17404,9 +17200,7 @@
         <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
-      <c r="J484" t="n">
-        <v>156.4</v>
-      </c>
+      <c r="J484" t="inlineStr"/>
       <c r="K484" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17443,9 +17237,7 @@
         <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
-      <c r="J485" t="n">
-        <v>156.4</v>
-      </c>
+      <c r="J485" t="inlineStr"/>
       <c r="K485" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17482,9 +17274,7 @@
         <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
-      <c r="J486" t="n">
-        <v>156.4</v>
-      </c>
+      <c r="J486" t="inlineStr"/>
       <c r="K486" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17521,9 +17311,7 @@
         <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
-      <c r="J487" t="n">
-        <v>156.4</v>
-      </c>
+      <c r="J487" t="inlineStr"/>
       <c r="K487" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17557,12 +17345,12 @@
         <v>-199562.4106111699</v>
       </c>
       <c r="H488" t="n">
-        <v>0</v>
-      </c>
-      <c r="I488" t="inlineStr"/>
-      <c r="J488" t="n">
-        <v>156.4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I488" t="n">
+        <v>166.3</v>
+      </c>
+      <c r="J488" t="inlineStr"/>
       <c r="K488" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17599,9 +17387,7 @@
         <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
-      <c r="J489" t="n">
-        <v>156.4</v>
-      </c>
+      <c r="J489" t="inlineStr"/>
       <c r="K489" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17638,9 +17424,7 @@
         <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
-      <c r="J490" t="n">
-        <v>156.4</v>
-      </c>
+      <c r="J490" t="inlineStr"/>
       <c r="K490" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17677,9 +17461,7 @@
         <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
-      <c r="J491" t="n">
-        <v>156.4</v>
-      </c>
+      <c r="J491" t="inlineStr"/>
       <c r="K491" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17716,9 +17498,7 @@
         <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
-      <c r="J492" t="n">
-        <v>156.4</v>
-      </c>
+      <c r="J492" t="inlineStr"/>
       <c r="K492" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17755,9 +17535,7 @@
         <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
-      <c r="J493" t="n">
-        <v>156.4</v>
-      </c>
+      <c r="J493" t="inlineStr"/>
       <c r="K493" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17794,9 +17572,7 @@
         <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
-      <c r="J494" t="n">
-        <v>156.4</v>
-      </c>
+      <c r="J494" t="inlineStr"/>
       <c r="K494" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17833,9 +17609,7 @@
         <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
-      <c r="J495" t="n">
-        <v>156.4</v>
-      </c>
+      <c r="J495" t="inlineStr"/>
       <c r="K495" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17872,9 +17646,7 @@
         <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
-      <c r="J496" t="n">
-        <v>156.4</v>
-      </c>
+      <c r="J496" t="inlineStr"/>
       <c r="K496" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17911,9 +17683,7 @@
         <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
-      <c r="J497" t="n">
-        <v>156.4</v>
-      </c>
+      <c r="J497" t="inlineStr"/>
       <c r="K497" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17950,9 +17720,7 @@
         <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
-      <c r="J498" t="n">
-        <v>156.4</v>
-      </c>
+      <c r="J498" t="inlineStr"/>
       <c r="K498" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17986,12 +17754,12 @@
         <v>-192357.1744111699</v>
       </c>
       <c r="H499" t="n">
-        <v>0</v>
-      </c>
-      <c r="I499" t="inlineStr"/>
-      <c r="J499" t="n">
-        <v>156.4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I499" t="n">
+        <v>168</v>
+      </c>
+      <c r="J499" t="inlineStr"/>
       <c r="K499" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18028,9 +17796,7 @@
         <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
-      <c r="J500" t="n">
-        <v>156.4</v>
-      </c>
+      <c r="J500" t="inlineStr"/>
       <c r="K500" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18067,9 +17833,7 @@
         <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
-      <c r="J501" t="n">
-        <v>156.4</v>
-      </c>
+      <c r="J501" t="inlineStr"/>
       <c r="K501" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18106,9 +17870,7 @@
         <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
-      <c r="J502" t="n">
-        <v>156.4</v>
-      </c>
+      <c r="J502" t="inlineStr"/>
       <c r="K502" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18142,12 +17904,12 @@
         <v>-200764.5066111699</v>
       </c>
       <c r="H503" t="n">
-        <v>0</v>
-      </c>
-      <c r="I503" t="inlineStr"/>
-      <c r="J503" t="n">
-        <v>156.4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I503" t="n">
+        <v>164.2</v>
+      </c>
+      <c r="J503" t="inlineStr"/>
       <c r="K503" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18181,12 +17943,12 @@
         <v>-200641.9616111699</v>
       </c>
       <c r="H504" t="n">
-        <v>0</v>
-      </c>
-      <c r="I504" t="inlineStr"/>
-      <c r="J504" t="n">
-        <v>156.4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I504" t="n">
+        <v>161.4</v>
+      </c>
+      <c r="J504" t="inlineStr"/>
       <c r="K504" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18220,12 +17982,12 @@
         <v>-200280.7559111699</v>
       </c>
       <c r="H505" t="n">
-        <v>0</v>
-      </c>
-      <c r="I505" t="inlineStr"/>
-      <c r="J505" t="n">
-        <v>156.4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I505" t="n">
+        <v>163</v>
+      </c>
+      <c r="J505" t="inlineStr"/>
       <c r="K505" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18259,12 +18021,12 @@
         <v>-200536.6648111699</v>
       </c>
       <c r="H506" t="n">
-        <v>0</v>
-      </c>
-      <c r="I506" t="inlineStr"/>
-      <c r="J506" t="n">
-        <v>156.4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I506" t="n">
+        <v>163.9</v>
+      </c>
+      <c r="J506" t="inlineStr"/>
       <c r="K506" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18298,12 +18060,12 @@
         <v>-200530.6648111699</v>
       </c>
       <c r="H507" t="n">
-        <v>0</v>
-      </c>
-      <c r="I507" t="inlineStr"/>
-      <c r="J507" t="n">
-        <v>156.4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I507" t="n">
+        <v>162</v>
+      </c>
+      <c r="J507" t="inlineStr"/>
       <c r="K507" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18337,12 +18099,12 @@
         <v>-200547.8754111699</v>
       </c>
       <c r="H508" t="n">
-        <v>0</v>
-      </c>
-      <c r="I508" t="inlineStr"/>
-      <c r="J508" t="n">
-        <v>156.4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I508" t="n">
+        <v>165</v>
+      </c>
+      <c r="J508" t="inlineStr"/>
       <c r="K508" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18376,12 +18138,12 @@
         <v>-200547.8754111699</v>
       </c>
       <c r="H509" t="n">
-        <v>0</v>
-      </c>
-      <c r="I509" t="inlineStr"/>
-      <c r="J509" t="n">
-        <v>156.4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I509" t="n">
+        <v>163</v>
+      </c>
+      <c r="J509" t="inlineStr"/>
       <c r="K509" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18415,14 +18177,12 @@
         <v>-203565.7357111699</v>
       </c>
       <c r="H510" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I510" t="n">
         <v>163</v>
       </c>
-      <c r="J510" t="n">
-        <v>156.4</v>
-      </c>
+      <c r="J510" t="inlineStr"/>
       <c r="K510" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18456,14 +18216,12 @@
         <v>-203559.7357111699</v>
       </c>
       <c r="H511" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I511" t="n">
         <v>161.7</v>
       </c>
-      <c r="J511" t="n">
-        <v>156.4</v>
-      </c>
+      <c r="J511" t="inlineStr"/>
       <c r="K511" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18497,12 +18255,12 @@
         <v>-203559.7357111699</v>
       </c>
       <c r="H512" t="n">
-        <v>0</v>
-      </c>
-      <c r="I512" t="inlineStr"/>
-      <c r="J512" t="n">
-        <v>156.4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I512" t="n">
+        <v>165</v>
+      </c>
+      <c r="J512" t="inlineStr"/>
       <c r="K512" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18536,14 +18294,12 @@
         <v>-204479.7357111699</v>
       </c>
       <c r="H513" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I513" t="n">
         <v>165</v>
       </c>
-      <c r="J513" t="n">
-        <v>156.4</v>
-      </c>
+      <c r="J513" t="inlineStr"/>
       <c r="K513" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18577,14 +18333,12 @@
         <v>-204473.7357111699</v>
       </c>
       <c r="H514" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I514" t="n">
         <v>161.4</v>
       </c>
-      <c r="J514" t="n">
-        <v>156.4</v>
-      </c>
+      <c r="J514" t="inlineStr"/>
       <c r="K514" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18618,12 +18372,12 @@
         <v>-204478.5299111699</v>
       </c>
       <c r="H515" t="n">
-        <v>0</v>
-      </c>
-      <c r="I515" t="inlineStr"/>
-      <c r="J515" t="n">
-        <v>156.4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I515" t="n">
+        <v>165</v>
+      </c>
+      <c r="J515" t="inlineStr"/>
       <c r="K515" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18657,12 +18411,12 @@
         <v>-200302.2643111699</v>
       </c>
       <c r="H516" t="n">
-        <v>0</v>
-      </c>
-      <c r="I516" t="inlineStr"/>
-      <c r="J516" t="n">
-        <v>156.4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I516" t="n">
+        <v>161.6</v>
+      </c>
+      <c r="J516" t="inlineStr"/>
       <c r="K516" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18696,12 +18450,12 @@
         <v>-198058.4732111699</v>
       </c>
       <c r="H517" t="n">
-        <v>0</v>
-      </c>
-      <c r="I517" t="inlineStr"/>
-      <c r="J517" t="n">
-        <v>156.4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I517" t="n">
+        <v>164.8</v>
+      </c>
+      <c r="J517" t="inlineStr"/>
       <c r="K517" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18735,12 +18489,12 @@
         <v>-198415.4732111699</v>
       </c>
       <c r="H518" t="n">
-        <v>0</v>
-      </c>
-      <c r="I518" t="inlineStr"/>
-      <c r="J518" t="n">
-        <v>156.4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I518" t="n">
+        <v>167</v>
+      </c>
+      <c r="J518" t="inlineStr"/>
       <c r="K518" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18774,12 +18528,12 @@
         <v>-198415.4732111699</v>
       </c>
       <c r="H519" t="n">
-        <v>0</v>
-      </c>
-      <c r="I519" t="inlineStr"/>
-      <c r="J519" t="n">
-        <v>156.4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I519" t="n">
+        <v>164.7</v>
+      </c>
+      <c r="J519" t="inlineStr"/>
       <c r="K519" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18813,12 +18567,12 @@
         <v>-198415.4732111699</v>
       </c>
       <c r="H520" t="n">
-        <v>0</v>
-      </c>
-      <c r="I520" t="inlineStr"/>
-      <c r="J520" t="n">
-        <v>156.4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I520" t="n">
+        <v>164.7</v>
+      </c>
+      <c r="J520" t="inlineStr"/>
       <c r="K520" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18852,12 +18606,12 @@
         <v>-198415.4732111699</v>
       </c>
       <c r="H521" t="n">
-        <v>0</v>
-      </c>
-      <c r="I521" t="inlineStr"/>
-      <c r="J521" t="n">
-        <v>156.4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I521" t="n">
+        <v>164.7</v>
+      </c>
+      <c r="J521" t="inlineStr"/>
       <c r="K521" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18891,12 +18645,12 @@
         <v>-196660.5063111699</v>
       </c>
       <c r="H522" t="n">
-        <v>0</v>
-      </c>
-      <c r="I522" t="inlineStr"/>
-      <c r="J522" t="n">
-        <v>156.4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I522" t="n">
+        <v>164.7</v>
+      </c>
+      <c r="J522" t="inlineStr"/>
       <c r="K522" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18930,12 +18684,12 @@
         <v>-196697.5063111699</v>
       </c>
       <c r="H523" t="n">
-        <v>0</v>
-      </c>
-      <c r="I523" t="inlineStr"/>
-      <c r="J523" t="n">
-        <v>156.4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I523" t="n">
+        <v>165</v>
+      </c>
+      <c r="J523" t="inlineStr"/>
       <c r="K523" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18969,14 +18723,12 @@
         <v>-196697.5063111699</v>
       </c>
       <c r="H524" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I524" t="n">
         <v>164.6</v>
       </c>
-      <c r="J524" t="n">
-        <v>156.4</v>
-      </c>
+      <c r="J524" t="inlineStr"/>
       <c r="K524" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19010,14 +18762,12 @@
         <v>-203819.9417111699</v>
       </c>
       <c r="H525" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I525" t="n">
         <v>164.6</v>
       </c>
-      <c r="J525" t="n">
-        <v>156.4</v>
-      </c>
+      <c r="J525" t="inlineStr"/>
       <c r="K525" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19051,14 +18801,12 @@
         <v>-203819.9417111699</v>
       </c>
       <c r="H526" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I526" t="n">
         <v>161.3</v>
       </c>
-      <c r="J526" t="n">
-        <v>156.4</v>
-      </c>
+      <c r="J526" t="inlineStr"/>
       <c r="K526" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19092,14 +18840,12 @@
         <v>-203819.9417111699</v>
       </c>
       <c r="H527" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I527" t="n">
         <v>161.3</v>
       </c>
-      <c r="J527" t="n">
-        <v>156.4</v>
-      </c>
+      <c r="J527" t="inlineStr"/>
       <c r="K527" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19133,14 +18879,12 @@
         <v>-203819.9417111699</v>
       </c>
       <c r="H528" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I528" t="n">
         <v>161.3</v>
       </c>
-      <c r="J528" t="n">
-        <v>156.4</v>
-      </c>
+      <c r="J528" t="inlineStr"/>
       <c r="K528" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19174,14 +18918,12 @@
         <v>-210374.8737111699</v>
       </c>
       <c r="H529" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I529" t="n">
         <v>161.3</v>
       </c>
-      <c r="J529" t="n">
-        <v>156.4</v>
-      </c>
+      <c r="J529" t="inlineStr"/>
       <c r="K529" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19215,14 +18957,12 @@
         <v>-215790.2786111699</v>
       </c>
       <c r="H530" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I530" t="n">
         <v>160.1</v>
       </c>
-      <c r="J530" t="n">
-        <v>156.4</v>
-      </c>
+      <c r="J530" t="inlineStr"/>
       <c r="K530" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19256,14 +18996,12 @@
         <v>-215944.5343111699</v>
       </c>
       <c r="H531" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I531" t="n">
         <v>160</v>
       </c>
-      <c r="J531" t="n">
-        <v>156.4</v>
-      </c>
+      <c r="J531" t="inlineStr"/>
       <c r="K531" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19297,14 +19035,12 @@
         <v>-218784.0299111699</v>
       </c>
       <c r="H532" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I532" t="n">
         <v>159.8</v>
       </c>
-      <c r="J532" t="n">
-        <v>156.4</v>
-      </c>
+      <c r="J532" t="inlineStr"/>
       <c r="K532" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19316,6 +19052,6 @@
       <c r="M532" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-15 BackTest ARN.xlsx
+++ b/BackTest/2020-01-15 BackTest ARN.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -484,7 +484,7 @@
         <v>-16148.1247</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-16175.1247</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-16635.0549</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-17040.9501</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-17137.9501</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-17107.7001</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-17107.7001</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-17107.7001</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-17587.7001</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-17351.7001</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-17351.7001</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-17345.7001</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>-16942.30300732999</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>-16843.50300732999</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-16480.50300732999</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>-16585.10490732999</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>-15786.85340732999</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>-15786.85340732999</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>-14986.80840732999</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>-30889.75180663999</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>-29074.96280663999</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>-29071.96280663999</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>-29077.96280663999</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>-29019.84380663999</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>-32170.47900663999</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>-32111.82410663999</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>-32111.82410663999</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>-31872.62940663999</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>-31872.62940663999</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>-31872.62940663999</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>-31892.62940663999</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>-31892.62940663999</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>-31892.62940663999</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>-31898.62940663999</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>-53868.63290663999</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -7909,7 +7909,7 @@
         <v>-62240.26910663996</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -7942,7 +7942,7 @@
         <v>-62366.56940663996</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -7975,7 +7975,7 @@
         <v>-63001.09450663996</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8008,7 +8008,7 @@
         <v>-61713.09450663996</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8041,7 +8041,7 @@
         <v>-61710.09450663996</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8074,7 +8074,7 @@
         <v>-65678.69520663995</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8107,7 +8107,7 @@
         <v>-66601.76590663995</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8173,7 +8173,7 @@
         <v>-54121.12427738995</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8305,7 +8305,7 @@
         <v>-53983.08967738995</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8338,7 +8338,7 @@
         <v>-53995.08967738995</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8371,7 +8371,7 @@
         <v>-53848.51107738995</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8404,7 +8404,7 @@
         <v>-54370.70287738995</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8437,7 +8437,7 @@
         <v>-54391.70287738995</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8635,7 +8635,7 @@
         <v>-104748.50107739</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8701,7 +8701,7 @@
         <v>-100985.12597739</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -8734,7 +8734,7 @@
         <v>-101134.17357739</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -8998,7 +8998,7 @@
         <v>-101250.42168313</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9163,7 +9163,7 @@
         <v>-108461.70788313</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9196,7 +9196,7 @@
         <v>-108212.59938313</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9229,7 +9229,7 @@
         <v>-109309.48038313</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9262,7 +9262,7 @@
         <v>-109322.32968313</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -10516,17 +10516,11 @@
         <v>-156563.46218313</v>
       </c>
       <c r="H307" t="n">
-        <v>1</v>
-      </c>
-      <c r="I307" t="n">
-        <v>160.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K307" t="inlineStr"/>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -10555,17 +10549,11 @@
         <v>-155561.99258313</v>
       </c>
       <c r="H308" t="n">
-        <v>1</v>
-      </c>
-      <c r="I308" t="n">
-        <v>158.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K308" t="inlineStr"/>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -10594,17 +10582,11 @@
         <v>-155786.7361831299</v>
       </c>
       <c r="H309" t="n">
-        <v>1</v>
-      </c>
-      <c r="I309" t="n">
-        <v>159</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K309" t="inlineStr"/>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -10633,17 +10615,11 @@
         <v>-155138.7361831299</v>
       </c>
       <c r="H310" t="n">
-        <v>1</v>
-      </c>
-      <c r="I310" t="n">
-        <v>158.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K310" t="inlineStr"/>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -10672,17 +10648,11 @@
         <v>-159173.2776831299</v>
       </c>
       <c r="H311" t="n">
-        <v>1</v>
-      </c>
-      <c r="I311" t="n">
-        <v>160.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K311" t="inlineStr"/>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -10711,17 +10681,11 @@
         <v>-160292.3086831299</v>
       </c>
       <c r="H312" t="n">
-        <v>1</v>
-      </c>
-      <c r="I312" t="n">
-        <v>158.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K312" t="inlineStr"/>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -10750,17 +10714,11 @@
         <v>-160280.3149831299</v>
       </c>
       <c r="H313" t="n">
-        <v>1</v>
-      </c>
-      <c r="I313" t="n">
-        <v>156.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K313" t="inlineStr"/>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -10789,17 +10747,11 @@
         <v>-160280.3149831299</v>
       </c>
       <c r="H314" t="n">
-        <v>1</v>
-      </c>
-      <c r="I314" t="n">
-        <v>156.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K314" t="inlineStr"/>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -10828,17 +10780,11 @@
         <v>-156278.8709831299</v>
       </c>
       <c r="H315" t="n">
-        <v>1</v>
-      </c>
-      <c r="I315" t="n">
-        <v>156.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K315" t="inlineStr"/>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -10867,17 +10813,11 @@
         <v>-156278.8709831299</v>
       </c>
       <c r="H316" t="n">
-        <v>1</v>
-      </c>
-      <c r="I316" t="n">
-        <v>158.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K316" t="inlineStr"/>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -10906,17 +10846,11 @@
         <v>-155883.66181792</v>
       </c>
       <c r="H317" t="n">
-        <v>1</v>
-      </c>
-      <c r="I317" t="n">
-        <v>158.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K317" t="inlineStr"/>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -10945,17 +10879,11 @@
         <v>-151714.91048313</v>
       </c>
       <c r="H318" t="n">
-        <v>1</v>
-      </c>
-      <c r="I318" t="n">
-        <v>159.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K318" t="inlineStr"/>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -10984,17 +10912,11 @@
         <v>-157866.29548313</v>
       </c>
       <c r="H319" t="n">
-        <v>1</v>
-      </c>
-      <c r="I319" t="n">
-        <v>161</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K319" t="inlineStr"/>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11023,17 +10945,11 @@
         <v>-157229.22338313</v>
       </c>
       <c r="H320" t="n">
-        <v>1</v>
-      </c>
-      <c r="I320" t="n">
-        <v>159</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K320" t="inlineStr"/>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11062,17 +10978,11 @@
         <v>-157229.22338313</v>
       </c>
       <c r="H321" t="n">
-        <v>1</v>
-      </c>
-      <c r="I321" t="n">
-        <v>162.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K321" t="inlineStr"/>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11101,17 +11011,11 @@
         <v>-148903.59078313</v>
       </c>
       <c r="H322" t="n">
-        <v>1</v>
-      </c>
-      <c r="I322" t="n">
-        <v>162.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K322" t="inlineStr"/>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11144,11 +11048,7 @@
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K323" t="inlineStr"/>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11181,11 +11081,7 @@
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K324" t="inlineStr"/>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11218,11 +11114,7 @@
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K325" t="inlineStr"/>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11255,11 +11147,7 @@
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K326" t="inlineStr"/>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11292,11 +11180,7 @@
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K327" t="inlineStr"/>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11329,11 +11213,7 @@
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K328" t="inlineStr"/>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11366,11 +11246,7 @@
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K329" t="inlineStr"/>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11403,11 +11279,7 @@
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K330" t="inlineStr"/>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -11440,11 +11312,7 @@
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K331" t="inlineStr"/>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -11477,11 +11345,7 @@
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K332" t="inlineStr"/>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -11514,11 +11378,7 @@
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K333" t="inlineStr"/>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -11551,11 +11411,7 @@
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K334" t="inlineStr"/>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -11588,11 +11444,7 @@
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K335" t="inlineStr"/>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -11625,11 +11477,7 @@
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K336" t="inlineStr"/>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -11662,11 +11510,7 @@
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K337" t="inlineStr"/>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -11699,11 +11543,7 @@
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K338" t="inlineStr"/>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -11736,11 +11576,7 @@
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K339" t="inlineStr"/>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -11773,11 +11609,7 @@
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K340" t="inlineStr"/>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -11810,11 +11642,7 @@
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K341" t="inlineStr"/>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -11847,11 +11675,7 @@
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K342" t="inlineStr"/>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -11884,11 +11708,7 @@
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K343" t="inlineStr"/>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -11921,11 +11741,7 @@
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K344" t="inlineStr"/>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -11958,11 +11774,7 @@
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K345" t="inlineStr"/>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -11995,11 +11807,7 @@
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K346" t="inlineStr"/>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -12032,11 +11840,7 @@
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K347" t="inlineStr"/>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -12069,11 +11873,7 @@
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K348" t="inlineStr"/>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -12106,11 +11906,7 @@
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K349" t="inlineStr"/>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -12143,11 +11939,7 @@
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K350" t="inlineStr"/>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -12180,11 +11972,7 @@
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K351" t="inlineStr"/>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12217,11 +12005,7 @@
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K352" t="inlineStr"/>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12254,11 +12038,7 @@
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K353" t="inlineStr"/>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12291,11 +12071,7 @@
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K354" t="inlineStr"/>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12328,11 +12104,7 @@
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K355" t="inlineStr"/>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12365,11 +12137,7 @@
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K356" t="inlineStr"/>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12402,11 +12170,7 @@
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K357" t="inlineStr"/>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12439,11 +12203,7 @@
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K358" t="inlineStr"/>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -12476,11 +12236,7 @@
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K359" t="inlineStr"/>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -12513,11 +12269,7 @@
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K360" t="inlineStr"/>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -12550,11 +12302,7 @@
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K361" t="inlineStr"/>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -12587,11 +12335,7 @@
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K362" t="inlineStr"/>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -12624,11 +12368,7 @@
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K363" t="inlineStr"/>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -12661,11 +12401,7 @@
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K364" t="inlineStr"/>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -12698,11 +12434,7 @@
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K365" t="inlineStr"/>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -12735,11 +12467,7 @@
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K366" t="inlineStr"/>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -12772,11 +12500,7 @@
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K367" t="inlineStr"/>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -12809,11 +12533,7 @@
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K368" t="inlineStr"/>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -12846,11 +12566,7 @@
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K369" t="inlineStr"/>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -12883,11 +12599,7 @@
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K370" t="inlineStr"/>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -12920,11 +12632,7 @@
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K371" t="inlineStr"/>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -12957,11 +12665,7 @@
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K372" t="inlineStr"/>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -12994,11 +12698,7 @@
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K373" t="inlineStr"/>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -13031,11 +12731,7 @@
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K374" t="inlineStr"/>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -13068,11 +12764,7 @@
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K375" t="inlineStr"/>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -13105,11 +12797,7 @@
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K376" t="inlineStr"/>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -13142,11 +12830,7 @@
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K377" t="inlineStr"/>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -13179,11 +12863,7 @@
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K378" t="inlineStr"/>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -13216,11 +12896,7 @@
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K379" t="inlineStr"/>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -13253,11 +12929,7 @@
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K380" t="inlineStr"/>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -13290,11 +12962,7 @@
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K381" t="inlineStr"/>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -13327,11 +12995,7 @@
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K382" t="inlineStr"/>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13364,11 +13028,7 @@
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K383" t="inlineStr"/>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13401,11 +13061,7 @@
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K384" t="inlineStr"/>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13438,11 +13094,7 @@
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K385" t="inlineStr"/>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -13475,11 +13127,7 @@
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K386" t="inlineStr"/>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -13512,11 +13160,7 @@
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K387" t="inlineStr"/>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -13549,11 +13193,7 @@
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K388" t="inlineStr"/>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -13586,11 +13226,7 @@
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K389" t="inlineStr"/>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -13623,11 +13259,7 @@
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K390" t="inlineStr"/>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -13660,11 +13292,7 @@
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K391" t="inlineStr"/>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -13697,11 +13325,7 @@
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K392" t="inlineStr"/>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -13734,11 +13358,7 @@
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K393" t="inlineStr"/>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -13771,11 +13391,7 @@
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K394" t="inlineStr"/>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -13808,11 +13424,7 @@
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K395" t="inlineStr"/>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -13845,11 +13457,7 @@
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K396" t="inlineStr"/>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -13882,11 +13490,7 @@
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K397" t="inlineStr"/>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -13919,11 +13523,7 @@
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K398" t="inlineStr"/>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -13956,11 +13556,7 @@
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K399" t="inlineStr"/>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -13993,11 +13589,7 @@
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K400" t="inlineStr"/>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -14030,11 +13622,7 @@
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K401" t="inlineStr"/>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -14067,11 +13655,7 @@
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K402" t="inlineStr"/>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -14104,11 +13688,7 @@
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K403" t="inlineStr"/>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -14141,11 +13721,7 @@
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K404" t="inlineStr"/>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -14178,11 +13754,7 @@
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K405" t="inlineStr"/>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -14215,11 +13787,7 @@
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K406" t="inlineStr"/>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -14252,11 +13820,7 @@
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K407" t="inlineStr"/>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -14289,11 +13853,7 @@
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K408" t="inlineStr"/>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -14326,11 +13886,7 @@
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K409" t="inlineStr"/>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -14363,11 +13919,7 @@
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K410" t="inlineStr"/>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -14400,11 +13952,7 @@
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K411" t="inlineStr"/>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -14437,11 +13985,7 @@
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K412" t="inlineStr"/>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -14474,11 +14018,7 @@
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K413" t="inlineStr"/>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -14511,11 +14051,7 @@
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K414" t="inlineStr"/>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -14548,11 +14084,7 @@
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K415" t="inlineStr"/>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -14585,11 +14117,7 @@
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K416" t="inlineStr"/>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -14622,11 +14150,7 @@
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K417" t="inlineStr"/>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -14659,11 +14183,7 @@
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K418" t="inlineStr"/>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -14696,11 +14216,7 @@
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K419" t="inlineStr"/>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -14733,11 +14249,7 @@
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K420" t="inlineStr"/>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -14766,17 +14278,11 @@
         <v>-198467.6492801099</v>
       </c>
       <c r="H421" t="n">
-        <v>1</v>
-      </c>
-      <c r="I421" t="n">
-        <v>160.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K421" t="inlineStr"/>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -14809,11 +14315,7 @@
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K422" t="inlineStr"/>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -14846,11 +14348,7 @@
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K423" t="inlineStr"/>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -14883,11 +14381,7 @@
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K424" t="inlineStr"/>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -14920,11 +14414,7 @@
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K425" t="inlineStr"/>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -14957,11 +14447,7 @@
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K426" t="inlineStr"/>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -14994,11 +14480,7 @@
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K427" t="inlineStr"/>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -15027,17 +14509,11 @@
         <v>-199900.20500983</v>
       </c>
       <c r="H428" t="n">
-        <v>1</v>
-      </c>
-      <c r="I428" t="n">
-        <v>159.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K428" t="inlineStr"/>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -15066,17 +14542,11 @@
         <v>-199906.20500983</v>
       </c>
       <c r="H429" t="n">
-        <v>1</v>
-      </c>
-      <c r="I429" t="n">
-        <v>162.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K429" t="inlineStr"/>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -15105,17 +14575,11 @@
         <v>-199902.20500983</v>
       </c>
       <c r="H430" t="n">
-        <v>1</v>
-      </c>
-      <c r="I430" t="n">
-        <v>162.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K430" t="inlineStr"/>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -15144,17 +14608,11 @@
         <v>-200793.43500983</v>
       </c>
       <c r="H431" t="n">
-        <v>1</v>
-      </c>
-      <c r="I431" t="n">
-        <v>163.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K431" t="inlineStr"/>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -15183,17 +14641,11 @@
         <v>-200785.43500983</v>
       </c>
       <c r="H432" t="n">
-        <v>1</v>
-      </c>
-      <c r="I432" t="n">
-        <v>160.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K432" t="inlineStr"/>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -15222,17 +14674,11 @@
         <v>-200812.2602105699</v>
       </c>
       <c r="H433" t="n">
-        <v>1</v>
-      </c>
-      <c r="I433" t="n">
-        <v>161.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K433" t="inlineStr"/>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -15261,17 +14707,11 @@
         <v>-200755.5426105699</v>
       </c>
       <c r="H434" t="n">
-        <v>1</v>
-      </c>
-      <c r="I434" t="n">
-        <v>159.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K434" t="inlineStr"/>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -15300,17 +14740,11 @@
         <v>-200751.5426105699</v>
       </c>
       <c r="H435" t="n">
-        <v>1</v>
-      </c>
-      <c r="I435" t="n">
-        <v>161.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K435" t="inlineStr"/>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -15339,17 +14773,11 @@
         <v>-199543.75051057</v>
       </c>
       <c r="H436" t="n">
-        <v>1</v>
-      </c>
-      <c r="I436" t="n">
-        <v>164.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K436" t="inlineStr"/>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -15378,17 +14806,11 @@
         <v>-200097.75051057</v>
       </c>
       <c r="H437" t="n">
-        <v>1</v>
-      </c>
-      <c r="I437" t="n">
-        <v>165.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K437" t="inlineStr"/>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -15417,17 +14839,11 @@
         <v>-200101.48541057</v>
       </c>
       <c r="H438" t="n">
-        <v>1</v>
-      </c>
-      <c r="I438" t="n">
-        <v>165</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K438" t="inlineStr"/>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -15456,17 +14872,11 @@
         <v>-200543.62081057</v>
       </c>
       <c r="H439" t="n">
-        <v>1</v>
-      </c>
-      <c r="I439" t="n">
-        <v>164.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K439" t="inlineStr"/>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -15495,17 +14905,11 @@
         <v>-200074.62081057</v>
       </c>
       <c r="H440" t="n">
-        <v>1</v>
-      </c>
-      <c r="I440" t="n">
-        <v>161.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K440" t="inlineStr"/>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -15534,17 +14938,11 @@
         <v>-199854.93031057</v>
       </c>
       <c r="H441" t="n">
-        <v>1</v>
-      </c>
-      <c r="I441" t="n">
-        <v>162.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K441" t="inlineStr"/>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -15573,17 +14971,11 @@
         <v>-199854.93031057</v>
       </c>
       <c r="H442" t="n">
-        <v>1</v>
-      </c>
-      <c r="I442" t="n">
-        <v>165</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K442" t="inlineStr"/>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -15612,17 +15004,11 @@
         <v>-184405.16871117</v>
       </c>
       <c r="H443" t="n">
-        <v>1</v>
-      </c>
-      <c r="I443" t="n">
-        <v>165</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K443" t="inlineStr"/>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -15655,11 +15041,7 @@
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K444" t="inlineStr"/>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -15692,11 +15074,7 @@
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K445" t="inlineStr"/>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -15729,11 +15107,7 @@
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K446" t="inlineStr"/>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -15766,11 +15140,7 @@
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K447" t="inlineStr"/>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -15799,17 +15169,11 @@
         <v>-184390.06891117</v>
       </c>
       <c r="H448" t="n">
-        <v>1</v>
-      </c>
-      <c r="I448" t="n">
-        <v>168.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K448" t="inlineStr"/>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -15838,17 +15202,11 @@
         <v>-189624.64651117</v>
       </c>
       <c r="H449" t="n">
-        <v>1</v>
-      </c>
-      <c r="I449" t="n">
-        <v>168.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K449" t="inlineStr"/>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -15877,17 +15235,11 @@
         <v>-189568.64671117</v>
       </c>
       <c r="H450" t="n">
-        <v>1</v>
-      </c>
-      <c r="I450" t="n">
-        <v>164.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K450" t="inlineStr"/>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -15916,17 +15268,11 @@
         <v>-197365.36001117</v>
       </c>
       <c r="H451" t="n">
-        <v>1</v>
-      </c>
-      <c r="I451" t="n">
-        <v>168.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K451" t="inlineStr"/>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -15955,17 +15301,11 @@
         <v>-197362.36001117</v>
       </c>
       <c r="H452" t="n">
-        <v>1</v>
-      </c>
-      <c r="I452" t="n">
-        <v>161.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K452" t="inlineStr"/>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -15998,11 +15338,7 @@
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K453" t="inlineStr"/>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -16031,17 +15367,11 @@
         <v>-199912.23121117</v>
       </c>
       <c r="H454" t="n">
-        <v>1</v>
-      </c>
-      <c r="I454" t="n">
-        <v>161.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K454" t="inlineStr"/>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -16070,17 +15400,11 @@
         <v>-199239.75791117</v>
       </c>
       <c r="H455" t="n">
-        <v>1</v>
-      </c>
-      <c r="I455" t="n">
-        <v>162</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K455" t="inlineStr"/>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -16109,17 +15433,11 @@
         <v>-199239.75791117</v>
       </c>
       <c r="H456" t="n">
-        <v>1</v>
-      </c>
-      <c r="I456" t="n">
-        <v>163</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K456" t="inlineStr"/>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -16148,17 +15466,11 @@
         <v>-199233.75791117</v>
       </c>
       <c r="H457" t="n">
-        <v>1</v>
-      </c>
-      <c r="I457" t="n">
-        <v>163</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K457" t="inlineStr"/>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -16187,17 +15499,11 @@
         <v>-199239.75791117</v>
       </c>
       <c r="H458" t="n">
-        <v>1</v>
-      </c>
-      <c r="I458" t="n">
-        <v>166.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K458" t="inlineStr"/>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -16230,11 +15536,7 @@
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K459" t="inlineStr"/>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -16263,17 +15565,11 @@
         <v>-201979.38521117</v>
       </c>
       <c r="H460" t="n">
-        <v>1</v>
-      </c>
-      <c r="I460" t="n">
-        <v>163</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K460" t="inlineStr"/>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -16302,17 +15598,11 @@
         <v>-201979.38521117</v>
       </c>
       <c r="H461" t="n">
-        <v>1</v>
-      </c>
-      <c r="I461" t="n">
-        <v>161.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K461" t="inlineStr"/>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -16341,17 +15631,11 @@
         <v>-201979.38521117</v>
       </c>
       <c r="H462" t="n">
-        <v>1</v>
-      </c>
-      <c r="I462" t="n">
-        <v>161.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K462" t="inlineStr"/>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -16380,17 +15664,11 @@
         <v>-200740.17021117</v>
       </c>
       <c r="H463" t="n">
-        <v>1</v>
-      </c>
-      <c r="I463" t="n">
-        <v>161.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K463" t="inlineStr"/>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -16419,17 +15697,11 @@
         <v>-200737.07021117</v>
       </c>
       <c r="H464" t="n">
-        <v>1</v>
-      </c>
-      <c r="I464" t="n">
-        <v>164.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K464" t="inlineStr"/>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -16458,17 +15730,11 @@
         <v>-200967.71301117</v>
       </c>
       <c r="H465" t="n">
-        <v>1</v>
-      </c>
-      <c r="I465" t="n">
-        <v>166.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K465" t="inlineStr"/>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -16497,17 +15763,11 @@
         <v>-200964.6130111699</v>
       </c>
       <c r="H466" t="n">
-        <v>1</v>
-      </c>
-      <c r="I466" t="n">
-        <v>165</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K466" t="inlineStr"/>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -16536,17 +15796,11 @@
         <v>-201514.6130111699</v>
       </c>
       <c r="H467" t="n">
-        <v>1</v>
-      </c>
-      <c r="I467" t="n">
-        <v>166.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K467" t="inlineStr"/>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -16575,17 +15829,11 @@
         <v>-200742.53971117</v>
       </c>
       <c r="H468" t="n">
-        <v>1</v>
-      </c>
-      <c r="I468" t="n">
-        <v>165</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K468" t="inlineStr"/>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -16618,11 +15866,7 @@
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K469" t="inlineStr"/>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -16651,17 +15895,11 @@
         <v>-201252.95931117</v>
       </c>
       <c r="H470" t="n">
-        <v>1</v>
-      </c>
-      <c r="I470" t="n">
-        <v>165.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K470" t="inlineStr"/>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -16690,17 +15928,11 @@
         <v>-202437.4133111699</v>
       </c>
       <c r="H471" t="n">
-        <v>1</v>
-      </c>
-      <c r="I471" t="n">
-        <v>165.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K471" t="inlineStr"/>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -16729,17 +15961,11 @@
         <v>-205602.7164111699</v>
       </c>
       <c r="H472" t="n">
-        <v>1</v>
-      </c>
-      <c r="I472" t="n">
-        <v>162.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K472" t="inlineStr"/>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -16768,17 +15994,11 @@
         <v>-205598.7164111699</v>
       </c>
       <c r="H473" t="n">
-        <v>1</v>
-      </c>
-      <c r="I473" t="n">
-        <v>161.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K473" t="inlineStr"/>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -16807,17 +16027,11 @@
         <v>-206784.1704111699</v>
       </c>
       <c r="H474" t="n">
-        <v>1</v>
-      </c>
-      <c r="I474" t="n">
-        <v>164.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K474" t="inlineStr"/>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -16846,17 +16060,11 @@
         <v>-206775.1704111699</v>
       </c>
       <c r="H475" t="n">
-        <v>1</v>
-      </c>
-      <c r="I475" t="n">
-        <v>164.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K475" t="inlineStr"/>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -16885,17 +16093,11 @@
         <v>-206778.2137111699</v>
       </c>
       <c r="H476" t="n">
-        <v>1</v>
-      </c>
-      <c r="I476" t="n">
-        <v>164.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K476" t="inlineStr"/>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -16924,17 +16126,11 @@
         <v>-206778.2137111699</v>
       </c>
       <c r="H477" t="n">
-        <v>1</v>
-      </c>
-      <c r="I477" t="n">
-        <v>164.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K477" t="inlineStr"/>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -16963,17 +16159,11 @@
         <v>-199754.8088111699</v>
       </c>
       <c r="H478" t="n">
-        <v>1</v>
-      </c>
-      <c r="I478" t="n">
-        <v>164.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K478" t="inlineStr"/>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -17002,17 +16192,11 @@
         <v>-199754.8088111699</v>
       </c>
       <c r="H479" t="n">
-        <v>1</v>
-      </c>
-      <c r="I479" t="n">
-        <v>164.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K479" t="inlineStr"/>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -17041,17 +16225,11 @@
         <v>-199751.7188111699</v>
       </c>
       <c r="H480" t="n">
-        <v>1</v>
-      </c>
-      <c r="I480" t="n">
-        <v>164.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K480" t="inlineStr"/>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -17080,17 +16258,11 @@
         <v>-200143.4106111699</v>
       </c>
       <c r="H481" t="n">
-        <v>1</v>
-      </c>
-      <c r="I481" t="n">
-        <v>164.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K481" t="inlineStr"/>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -17119,17 +16291,11 @@
         <v>-200134.4106111699</v>
       </c>
       <c r="H482" t="n">
-        <v>1</v>
-      </c>
-      <c r="I482" t="n">
-        <v>164.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K482" t="inlineStr"/>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -17158,17 +16324,11 @@
         <v>-200134.4106111699</v>
       </c>
       <c r="H483" t="n">
-        <v>1</v>
-      </c>
-      <c r="I483" t="n">
-        <v>164.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K483" t="inlineStr"/>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -17201,11 +16361,7 @@
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K484" t="inlineStr"/>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -17238,11 +16394,7 @@
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K485" t="inlineStr"/>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -17275,11 +16427,7 @@
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K486" t="inlineStr"/>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -17312,11 +16460,7 @@
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K487" t="inlineStr"/>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -17345,17 +16489,11 @@
         <v>-199562.4106111699</v>
       </c>
       <c r="H488" t="n">
-        <v>1</v>
-      </c>
-      <c r="I488" t="n">
-        <v>166.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K488" t="inlineStr"/>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -17388,11 +16526,7 @@
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K489" t="inlineStr"/>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -17425,11 +16559,7 @@
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K490" t="inlineStr"/>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -17462,11 +16592,7 @@
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K491" t="inlineStr"/>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -17499,11 +16625,7 @@
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K492" t="inlineStr"/>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -17536,11 +16658,7 @@
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K493" t="inlineStr"/>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -17573,11 +16691,7 @@
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K494" t="inlineStr"/>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -17610,11 +16724,7 @@
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K495" t="inlineStr"/>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -17647,11 +16757,7 @@
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K496" t="inlineStr"/>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -17684,11 +16790,7 @@
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K497" t="inlineStr"/>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -17721,11 +16823,7 @@
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K498" t="inlineStr"/>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -17754,17 +16852,11 @@
         <v>-192357.1744111699</v>
       </c>
       <c r="H499" t="n">
-        <v>1</v>
-      </c>
-      <c r="I499" t="n">
-        <v>168</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K499" t="inlineStr"/>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -17797,11 +16889,7 @@
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K500" t="inlineStr"/>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -17834,11 +16922,7 @@
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K501" t="inlineStr"/>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -17871,11 +16955,7 @@
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K502" t="inlineStr"/>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -17904,17 +16984,11 @@
         <v>-200764.5066111699</v>
       </c>
       <c r="H503" t="n">
-        <v>1</v>
-      </c>
-      <c r="I503" t="n">
-        <v>164.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
-      <c r="K503" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K503" t="inlineStr"/>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -17943,17 +17017,11 @@
         <v>-200641.9616111699</v>
       </c>
       <c r="H504" t="n">
-        <v>1</v>
-      </c>
-      <c r="I504" t="n">
-        <v>161.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
-      <c r="K504" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K504" t="inlineStr"/>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -17982,17 +17050,11 @@
         <v>-200280.7559111699</v>
       </c>
       <c r="H505" t="n">
-        <v>1</v>
-      </c>
-      <c r="I505" t="n">
-        <v>163</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
-      <c r="K505" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K505" t="inlineStr"/>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -18021,17 +17083,11 @@
         <v>-200536.6648111699</v>
       </c>
       <c r="H506" t="n">
-        <v>1</v>
-      </c>
-      <c r="I506" t="n">
-        <v>163.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K506" t="inlineStr"/>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -18065,12 +17121,10 @@
       <c r="I507" t="n">
         <v>162</v>
       </c>
-      <c r="J507" t="inlineStr"/>
-      <c r="K507" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J507" t="n">
+        <v>162</v>
+      </c>
+      <c r="K507" t="inlineStr"/>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -18099,15 +17153,15 @@
         <v>-200547.8754111699</v>
       </c>
       <c r="H508" t="n">
-        <v>1</v>
-      </c>
-      <c r="I508" t="n">
-        <v>165</v>
-      </c>
-      <c r="J508" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I508" t="inlineStr"/>
+      <c r="J508" t="n">
+        <v>162</v>
+      </c>
       <c r="K508" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L508" t="n">
@@ -18138,15 +17192,15 @@
         <v>-200547.8754111699</v>
       </c>
       <c r="H509" t="n">
-        <v>1</v>
-      </c>
-      <c r="I509" t="n">
-        <v>163</v>
-      </c>
-      <c r="J509" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I509" t="inlineStr"/>
+      <c r="J509" t="n">
+        <v>162</v>
+      </c>
       <c r="K509" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L509" t="n">
@@ -18177,17 +17231,11 @@
         <v>-203565.7357111699</v>
       </c>
       <c r="H510" t="n">
-        <v>1</v>
-      </c>
-      <c r="I510" t="n">
-        <v>163</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
-      <c r="K510" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K510" t="inlineStr"/>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -18216,17 +17264,11 @@
         <v>-203559.7357111699</v>
       </c>
       <c r="H511" t="n">
-        <v>1</v>
-      </c>
-      <c r="I511" t="n">
-        <v>161.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
-      <c r="K511" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K511" t="inlineStr"/>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -18255,17 +17297,11 @@
         <v>-203559.7357111699</v>
       </c>
       <c r="H512" t="n">
-        <v>1</v>
-      </c>
-      <c r="I512" t="n">
-        <v>165</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
-      <c r="K512" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K512" t="inlineStr"/>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -18294,17 +17330,11 @@
         <v>-204479.7357111699</v>
       </c>
       <c r="H513" t="n">
-        <v>1</v>
-      </c>
-      <c r="I513" t="n">
-        <v>165</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
-      <c r="K513" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K513" t="inlineStr"/>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -18338,12 +17368,10 @@
       <c r="I514" t="n">
         <v>161.4</v>
       </c>
-      <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J514" t="n">
+        <v>161.4</v>
+      </c>
+      <c r="K514" t="inlineStr"/>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -18372,15 +17400,15 @@
         <v>-204478.5299111699</v>
       </c>
       <c r="H515" t="n">
-        <v>1</v>
-      </c>
-      <c r="I515" t="n">
-        <v>165</v>
-      </c>
-      <c r="J515" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I515" t="inlineStr"/>
+      <c r="J515" t="n">
+        <v>161.4</v>
+      </c>
       <c r="K515" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L515" t="n">
@@ -18416,10 +17444,12 @@
       <c r="I516" t="n">
         <v>161.6</v>
       </c>
-      <c r="J516" t="inlineStr"/>
+      <c r="J516" t="n">
+        <v>161.4</v>
+      </c>
       <c r="K516" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L516" t="n">
@@ -18450,17 +17480,11 @@
         <v>-198058.4732111699</v>
       </c>
       <c r="H517" t="n">
-        <v>1</v>
-      </c>
-      <c r="I517" t="n">
-        <v>164.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
-      <c r="K517" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K517" t="inlineStr"/>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -18489,17 +17513,11 @@
         <v>-198415.4732111699</v>
       </c>
       <c r="H518" t="n">
-        <v>1</v>
-      </c>
-      <c r="I518" t="n">
-        <v>167</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
-      <c r="K518" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K518" t="inlineStr"/>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -18528,17 +17546,11 @@
         <v>-198415.4732111699</v>
       </c>
       <c r="H519" t="n">
-        <v>1</v>
-      </c>
-      <c r="I519" t="n">
-        <v>164.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
-      <c r="K519" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K519" t="inlineStr"/>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -18567,17 +17579,11 @@
         <v>-198415.4732111699</v>
       </c>
       <c r="H520" t="n">
-        <v>1</v>
-      </c>
-      <c r="I520" t="n">
-        <v>164.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
-      <c r="K520" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K520" t="inlineStr"/>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -18606,17 +17612,11 @@
         <v>-198415.4732111699</v>
       </c>
       <c r="H521" t="n">
-        <v>1</v>
-      </c>
-      <c r="I521" t="n">
-        <v>164.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
-      <c r="K521" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K521" t="inlineStr"/>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -18645,17 +17645,11 @@
         <v>-196660.5063111699</v>
       </c>
       <c r="H522" t="n">
-        <v>1</v>
-      </c>
-      <c r="I522" t="n">
-        <v>164.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
-      <c r="K522" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K522" t="inlineStr"/>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -18684,17 +17678,11 @@
         <v>-196697.5063111699</v>
       </c>
       <c r="H523" t="n">
-        <v>1</v>
-      </c>
-      <c r="I523" t="n">
-        <v>165</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
-      <c r="K523" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K523" t="inlineStr"/>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -18723,17 +17711,11 @@
         <v>-196697.5063111699</v>
       </c>
       <c r="H524" t="n">
-        <v>1</v>
-      </c>
-      <c r="I524" t="n">
-        <v>164.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
-      <c r="K524" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K524" t="inlineStr"/>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -18762,17 +17744,11 @@
         <v>-203819.9417111699</v>
       </c>
       <c r="H525" t="n">
-        <v>1</v>
-      </c>
-      <c r="I525" t="n">
-        <v>164.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
-      <c r="K525" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K525" t="inlineStr"/>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -18801,17 +17777,11 @@
         <v>-203819.9417111699</v>
       </c>
       <c r="H526" t="n">
-        <v>1</v>
-      </c>
-      <c r="I526" t="n">
-        <v>161.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
-      <c r="K526" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K526" t="inlineStr"/>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -18840,17 +17810,11 @@
         <v>-203819.9417111699</v>
       </c>
       <c r="H527" t="n">
-        <v>1</v>
-      </c>
-      <c r="I527" t="n">
-        <v>161.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
-      <c r="K527" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K527" t="inlineStr"/>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -18879,17 +17843,11 @@
         <v>-203819.9417111699</v>
       </c>
       <c r="H528" t="n">
-        <v>1</v>
-      </c>
-      <c r="I528" t="n">
-        <v>161.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
-      <c r="K528" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K528" t="inlineStr"/>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -18926,7 +17884,7 @@
       <c r="J529" t="inlineStr"/>
       <c r="K529" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L529" t="n">
@@ -19052,6 +18010,6 @@
       <c r="M532" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-15 BackTest ARN.xlsx
+++ b/BackTest/2020-01-15 BackTest ARN.xlsx
@@ -847,7 +847,7 @@
         <v>-16119.5247</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-16638.0549</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-16638.0549</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-16752.3711</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-16916.1665</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-16922.1665</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-16919.1665</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-16922.1665</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-16919.1665</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-16916.1665</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-16895.1665</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-16874.1993</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-16995.7085</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-16995.7085</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-17025.7085</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-17028.7085</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-17128.7085</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-17040.9501</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-17356.7001</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-17423.7001</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-17423.7001</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-9877.599299999998</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-10522.5993</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-10513.5993</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-10644.87710733</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>-14059.10620732999</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>-12210.64070732999</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>-12104.85060732999</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>-12104.85060732999</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>-12094.85060732999</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>-12094.85060732999</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>-12170.27580732999</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>-13271.38750663999</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>-13261.38750663999</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>-13261.38750663999</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>-13261.38750663999</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>-13269.38750663999</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>-13278.38750663999</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>-13281.38750663999</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>-13296.38750663999</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>-13311.38750663999</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>-13423.60520663999</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -7909,7 +7909,7 @@
         <v>-62240.26910663996</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -7942,7 +7942,7 @@
         <v>-62366.56940663996</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -7975,7 +7975,7 @@
         <v>-63001.09450663996</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8008,7 +8008,7 @@
         <v>-61713.09450663996</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8041,7 +8041,7 @@
         <v>-61710.09450663996</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8074,7 +8074,7 @@
         <v>-65678.69520663995</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8107,7 +8107,7 @@
         <v>-66601.76590663995</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8173,7 +8173,7 @@
         <v>-54121.12427738995</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8305,7 +8305,7 @@
         <v>-53983.08967738995</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8338,7 +8338,7 @@
         <v>-53995.08967738995</v>
       </c>
       <c r="H241" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8371,7 +8371,7 @@
         <v>-53848.51107738995</v>
       </c>
       <c r="H242" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8404,7 +8404,7 @@
         <v>-54370.70287738995</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8437,7 +8437,7 @@
         <v>-54391.70287738995</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8635,7 +8635,7 @@
         <v>-104748.50107739</v>
       </c>
       <c r="H250" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8701,7 +8701,7 @@
         <v>-100985.12597739</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -8734,7 +8734,7 @@
         <v>-101134.17357739</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -8998,7 +8998,7 @@
         <v>-101250.42168313</v>
       </c>
       <c r="H261" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9163,7 +9163,7 @@
         <v>-108461.70788313</v>
       </c>
       <c r="H266" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9196,7 +9196,7 @@
         <v>-108212.59938313</v>
       </c>
       <c r="H267" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9229,7 +9229,7 @@
         <v>-109309.48038313</v>
       </c>
       <c r="H268" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9262,7 +9262,7 @@
         <v>-109322.32968313</v>
       </c>
       <c r="H269" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -14674,11 +14674,17 @@
         <v>-200812.2602105699</v>
       </c>
       <c r="H433" t="n">
-        <v>0</v>
-      </c>
-      <c r="I433" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I433" t="n">
+        <v>161.9</v>
+      </c>
       <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -14707,11 +14713,17 @@
         <v>-200755.5426105699</v>
       </c>
       <c r="H434" t="n">
-        <v>0</v>
-      </c>
-      <c r="I434" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I434" t="n">
+        <v>159.4</v>
+      </c>
       <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -14740,11 +14752,17 @@
         <v>-200751.5426105699</v>
       </c>
       <c r="H435" t="n">
-        <v>0</v>
-      </c>
-      <c r="I435" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I435" t="n">
+        <v>161.9</v>
+      </c>
       <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -14777,7 +14795,11 @@
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -14810,7 +14832,11 @@
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -14839,11 +14865,17 @@
         <v>-200101.48541057</v>
       </c>
       <c r="H438" t="n">
-        <v>0</v>
-      </c>
-      <c r="I438" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I438" t="n">
+        <v>165</v>
+      </c>
       <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr"/>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -14872,11 +14904,17 @@
         <v>-200543.62081057</v>
       </c>
       <c r="H439" t="n">
-        <v>0</v>
-      </c>
-      <c r="I439" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I439" t="n">
+        <v>164.4</v>
+      </c>
       <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr"/>
+      <c r="K439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -14905,11 +14943,17 @@
         <v>-200074.62081057</v>
       </c>
       <c r="H440" t="n">
-        <v>0</v>
-      </c>
-      <c r="I440" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I440" t="n">
+        <v>161.2</v>
+      </c>
       <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
+      <c r="K440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -14938,11 +14982,17 @@
         <v>-199854.93031057</v>
       </c>
       <c r="H441" t="n">
-        <v>0</v>
-      </c>
-      <c r="I441" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I441" t="n">
+        <v>162.8</v>
+      </c>
       <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -14971,11 +15021,17 @@
         <v>-199854.93031057</v>
       </c>
       <c r="H442" t="n">
-        <v>0</v>
-      </c>
-      <c r="I442" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I442" t="n">
+        <v>165</v>
+      </c>
       <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr"/>
+      <c r="K442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -15004,11 +15060,17 @@
         <v>-184405.16871117</v>
       </c>
       <c r="H443" t="n">
-        <v>0</v>
-      </c>
-      <c r="I443" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I443" t="n">
+        <v>165</v>
+      </c>
       <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr"/>
+      <c r="K443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -15041,7 +15103,11 @@
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr"/>
+      <c r="K444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -15074,7 +15140,11 @@
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr"/>
+      <c r="K445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -15107,7 +15177,11 @@
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr"/>
+      <c r="K446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -15140,7 +15214,11 @@
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr"/>
+      <c r="K447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -15173,7 +15251,11 @@
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr"/>
+      <c r="K448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -15206,7 +15288,11 @@
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr"/>
+      <c r="K449" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -15239,7 +15325,11 @@
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr"/>
+      <c r="K450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -15272,7 +15362,11 @@
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr"/>
+      <c r="K451" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -15305,7 +15399,11 @@
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr"/>
+      <c r="K452" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -15338,7 +15436,11 @@
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr"/>
+      <c r="K453" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -15371,7 +15473,11 @@
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr"/>
+      <c r="K454" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -15404,7 +15510,11 @@
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr"/>
+      <c r="K455" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -15433,11 +15543,17 @@
         <v>-199239.75791117</v>
       </c>
       <c r="H456" t="n">
-        <v>0</v>
-      </c>
-      <c r="I456" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I456" t="n">
+        <v>163</v>
+      </c>
       <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr"/>
+      <c r="K456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -15466,11 +15582,17 @@
         <v>-199233.75791117</v>
       </c>
       <c r="H457" t="n">
-        <v>0</v>
-      </c>
-      <c r="I457" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I457" t="n">
+        <v>163</v>
+      </c>
       <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr"/>
+      <c r="K457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -15499,11 +15621,17 @@
         <v>-199239.75791117</v>
       </c>
       <c r="H458" t="n">
-        <v>0</v>
-      </c>
-      <c r="I458" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I458" t="n">
+        <v>166.9</v>
+      </c>
       <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr"/>
+      <c r="K458" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -15532,11 +15660,17 @@
         <v>-199360.78071117</v>
       </c>
       <c r="H459" t="n">
-        <v>0</v>
-      </c>
-      <c r="I459" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I459" t="n">
+        <v>164.9</v>
+      </c>
       <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr"/>
+      <c r="K459" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -15565,11 +15699,17 @@
         <v>-201979.38521117</v>
       </c>
       <c r="H460" t="n">
-        <v>0</v>
-      </c>
-      <c r="I460" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I460" t="n">
+        <v>163</v>
+      </c>
       <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr"/>
+      <c r="K460" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -15602,7 +15742,11 @@
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr"/>
+      <c r="K461" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -15631,11 +15775,17 @@
         <v>-201979.38521117</v>
       </c>
       <c r="H462" t="n">
-        <v>0</v>
-      </c>
-      <c r="I462" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I462" t="n">
+        <v>161.9</v>
+      </c>
       <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr"/>
+      <c r="K462" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -15664,11 +15814,17 @@
         <v>-200740.17021117</v>
       </c>
       <c r="H463" t="n">
-        <v>0</v>
-      </c>
-      <c r="I463" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I463" t="n">
+        <v>161.9</v>
+      </c>
       <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr"/>
+      <c r="K463" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -15697,11 +15853,17 @@
         <v>-200737.07021117</v>
       </c>
       <c r="H464" t="n">
-        <v>0</v>
-      </c>
-      <c r="I464" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I464" t="n">
+        <v>164.9</v>
+      </c>
       <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr"/>
+      <c r="K464" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -15730,11 +15892,17 @@
         <v>-200967.71301117</v>
       </c>
       <c r="H465" t="n">
-        <v>0</v>
-      </c>
-      <c r="I465" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I465" t="n">
+        <v>166.4</v>
+      </c>
       <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr"/>
+      <c r="K465" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -15763,11 +15931,17 @@
         <v>-200964.6130111699</v>
       </c>
       <c r="H466" t="n">
-        <v>0</v>
-      </c>
-      <c r="I466" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I466" t="n">
+        <v>165</v>
+      </c>
       <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr"/>
+      <c r="K466" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -15796,11 +15970,17 @@
         <v>-201514.6130111699</v>
       </c>
       <c r="H467" t="n">
-        <v>0</v>
-      </c>
-      <c r="I467" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I467" t="n">
+        <v>166.3</v>
+      </c>
       <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr"/>
+      <c r="K467" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -15829,11 +16009,17 @@
         <v>-200742.53971117</v>
       </c>
       <c r="H468" t="n">
-        <v>0</v>
-      </c>
-      <c r="I468" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I468" t="n">
+        <v>165</v>
+      </c>
       <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr"/>
+      <c r="K468" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -15862,11 +16048,17 @@
         <v>-200754.53971117</v>
       </c>
       <c r="H469" t="n">
-        <v>0</v>
-      </c>
-      <c r="I469" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I469" t="n">
+        <v>166.3</v>
+      </c>
       <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr"/>
+      <c r="K469" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -15895,11 +16087,17 @@
         <v>-201252.95931117</v>
       </c>
       <c r="H470" t="n">
-        <v>0</v>
-      </c>
-      <c r="I470" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I470" t="n">
+        <v>165.7</v>
+      </c>
       <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr"/>
+      <c r="K470" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -15928,11 +16126,17 @@
         <v>-202437.4133111699</v>
       </c>
       <c r="H471" t="n">
-        <v>0</v>
-      </c>
-      <c r="I471" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I471" t="n">
+        <v>165.6</v>
+      </c>
       <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr"/>
+      <c r="K471" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -15961,11 +16165,17 @@
         <v>-205602.7164111699</v>
       </c>
       <c r="H472" t="n">
-        <v>0</v>
-      </c>
-      <c r="I472" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I472" t="n">
+        <v>162.1</v>
+      </c>
       <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr"/>
+      <c r="K472" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -15994,11 +16204,17 @@
         <v>-205598.7164111699</v>
       </c>
       <c r="H473" t="n">
-        <v>0</v>
-      </c>
-      <c r="I473" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I473" t="n">
+        <v>161.3</v>
+      </c>
       <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr"/>
+      <c r="K473" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -16027,11 +16243,17 @@
         <v>-206784.1704111699</v>
       </c>
       <c r="H474" t="n">
-        <v>0</v>
-      </c>
-      <c r="I474" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I474" t="n">
+        <v>164.9</v>
+      </c>
       <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr"/>
+      <c r="K474" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -16064,7 +16286,11 @@
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr"/>
+      <c r="K475" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -16093,11 +16319,17 @@
         <v>-206778.2137111699</v>
       </c>
       <c r="H476" t="n">
-        <v>0</v>
-      </c>
-      <c r="I476" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I476" t="n">
+        <v>164.8</v>
+      </c>
       <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr"/>
+      <c r="K476" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -16126,11 +16358,17 @@
         <v>-206778.2137111699</v>
       </c>
       <c r="H477" t="n">
-        <v>0</v>
-      </c>
-      <c r="I477" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I477" t="n">
+        <v>164.3</v>
+      </c>
       <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr"/>
+      <c r="K477" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -16159,11 +16397,17 @@
         <v>-199754.8088111699</v>
       </c>
       <c r="H478" t="n">
-        <v>0</v>
-      </c>
-      <c r="I478" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I478" t="n">
+        <v>164.3</v>
+      </c>
       <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr"/>
+      <c r="K478" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -16192,11 +16436,17 @@
         <v>-199754.8088111699</v>
       </c>
       <c r="H479" t="n">
-        <v>0</v>
-      </c>
-      <c r="I479" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I479" t="n">
+        <v>164.7</v>
+      </c>
       <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr"/>
+      <c r="K479" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -16225,11 +16475,17 @@
         <v>-199751.7188111699</v>
       </c>
       <c r="H480" t="n">
-        <v>0</v>
-      </c>
-      <c r="I480" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I480" t="n">
+        <v>164.7</v>
+      </c>
       <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr"/>
+      <c r="K480" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -16258,11 +16514,17 @@
         <v>-200143.4106111699</v>
       </c>
       <c r="H481" t="n">
-        <v>0</v>
-      </c>
-      <c r="I481" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I481" t="n">
+        <v>164.9</v>
+      </c>
       <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr"/>
+      <c r="K481" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -16291,11 +16553,17 @@
         <v>-200134.4106111699</v>
       </c>
       <c r="H482" t="n">
-        <v>0</v>
-      </c>
-      <c r="I482" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I482" t="n">
+        <v>164.7</v>
+      </c>
       <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr"/>
+      <c r="K482" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -16324,11 +16592,17 @@
         <v>-200134.4106111699</v>
       </c>
       <c r="H483" t="n">
-        <v>0</v>
-      </c>
-      <c r="I483" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I483" t="n">
+        <v>164.9</v>
+      </c>
       <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr"/>
+      <c r="K483" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -16357,11 +16631,17 @@
         <v>-200134.4106111699</v>
       </c>
       <c r="H484" t="n">
-        <v>0</v>
-      </c>
-      <c r="I484" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I484" t="n">
+        <v>164.9</v>
+      </c>
       <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr"/>
+      <c r="K484" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -16390,11 +16670,17 @@
         <v>-200130.4106111699</v>
       </c>
       <c r="H485" t="n">
-        <v>0</v>
-      </c>
-      <c r="I485" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I485" t="n">
+        <v>164.9</v>
+      </c>
       <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr"/>
+      <c r="K485" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -16423,11 +16709,17 @@
         <v>-199562.4106111699</v>
       </c>
       <c r="H486" t="n">
-        <v>0</v>
-      </c>
-      <c r="I486" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I486" t="n">
+        <v>165.3</v>
+      </c>
       <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr"/>
+      <c r="K486" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -16456,11 +16748,17 @@
         <v>-199562.4106111699</v>
       </c>
       <c r="H487" t="n">
-        <v>0</v>
-      </c>
-      <c r="I487" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I487" t="n">
+        <v>166.3</v>
+      </c>
       <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr"/>
+      <c r="K487" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -16489,11 +16787,17 @@
         <v>-199562.4106111699</v>
       </c>
       <c r="H488" t="n">
-        <v>0</v>
-      </c>
-      <c r="I488" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I488" t="n">
+        <v>166.3</v>
+      </c>
       <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr"/>
+      <c r="K488" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -16526,7 +16830,11 @@
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr"/>
+      <c r="K489" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -16559,7 +16867,11 @@
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr"/>
+      <c r="K490" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -16592,7 +16904,11 @@
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr"/>
+      <c r="K491" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -16625,7 +16941,11 @@
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr"/>
+      <c r="K492" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -16658,7 +16978,11 @@
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr"/>
+      <c r="K493" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -16691,7 +17015,11 @@
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr"/>
+      <c r="K494" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -16724,7 +17052,11 @@
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr"/>
+      <c r="K495" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -16757,7 +17089,11 @@
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr"/>
+      <c r="K496" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -16790,7 +17126,11 @@
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr"/>
+      <c r="K497" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -16823,7 +17163,11 @@
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr"/>
+      <c r="K498" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -16856,7 +17200,11 @@
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr"/>
+      <c r="K499" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -16889,7 +17237,11 @@
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr"/>
+      <c r="K500" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -16922,7 +17274,11 @@
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr"/>
+      <c r="K501" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -16955,7 +17311,11 @@
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr"/>
+      <c r="K502" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -16988,7 +17348,11 @@
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
-      <c r="K503" t="inlineStr"/>
+      <c r="K503" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -17017,11 +17381,17 @@
         <v>-200641.9616111699</v>
       </c>
       <c r="H504" t="n">
-        <v>0</v>
-      </c>
-      <c r="I504" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I504" t="n">
+        <v>161.4</v>
+      </c>
       <c r="J504" t="inlineStr"/>
-      <c r="K504" t="inlineStr"/>
+      <c r="K504" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -17050,11 +17420,17 @@
         <v>-200280.7559111699</v>
       </c>
       <c r="H505" t="n">
-        <v>0</v>
-      </c>
-      <c r="I505" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I505" t="n">
+        <v>163</v>
+      </c>
       <c r="J505" t="inlineStr"/>
-      <c r="K505" t="inlineStr"/>
+      <c r="K505" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -17083,11 +17459,17 @@
         <v>-200536.6648111699</v>
       </c>
       <c r="H506" t="n">
-        <v>0</v>
-      </c>
-      <c r="I506" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I506" t="n">
+        <v>163.9</v>
+      </c>
       <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr"/>
+      <c r="K506" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -17121,10 +17503,12 @@
       <c r="I507" t="n">
         <v>162</v>
       </c>
-      <c r="J507" t="n">
-        <v>162</v>
-      </c>
-      <c r="K507" t="inlineStr"/>
+      <c r="J507" t="inlineStr"/>
+      <c r="K507" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -17153,15 +17537,15 @@
         <v>-200547.8754111699</v>
       </c>
       <c r="H508" t="n">
-        <v>0</v>
-      </c>
-      <c r="I508" t="inlineStr"/>
-      <c r="J508" t="n">
-        <v>162</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I508" t="n">
+        <v>165</v>
+      </c>
+      <c r="J508" t="inlineStr"/>
       <c r="K508" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L508" t="n">
@@ -17192,15 +17576,15 @@
         <v>-200547.8754111699</v>
       </c>
       <c r="H509" t="n">
-        <v>0</v>
-      </c>
-      <c r="I509" t="inlineStr"/>
-      <c r="J509" t="n">
-        <v>162</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I509" t="n">
+        <v>163</v>
+      </c>
+      <c r="J509" t="inlineStr"/>
       <c r="K509" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L509" t="n">
@@ -17231,11 +17615,17 @@
         <v>-203565.7357111699</v>
       </c>
       <c r="H510" t="n">
-        <v>0</v>
-      </c>
-      <c r="I510" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I510" t="n">
+        <v>163</v>
+      </c>
       <c r="J510" t="inlineStr"/>
-      <c r="K510" t="inlineStr"/>
+      <c r="K510" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -17264,11 +17654,17 @@
         <v>-203559.7357111699</v>
       </c>
       <c r="H511" t="n">
-        <v>0</v>
-      </c>
-      <c r="I511" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I511" t="n">
+        <v>161.7</v>
+      </c>
       <c r="J511" t="inlineStr"/>
-      <c r="K511" t="inlineStr"/>
+      <c r="K511" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -17297,11 +17693,17 @@
         <v>-203559.7357111699</v>
       </c>
       <c r="H512" t="n">
-        <v>0</v>
-      </c>
-      <c r="I512" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I512" t="n">
+        <v>165</v>
+      </c>
       <c r="J512" t="inlineStr"/>
-      <c r="K512" t="inlineStr"/>
+      <c r="K512" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -17330,11 +17732,17 @@
         <v>-204479.7357111699</v>
       </c>
       <c r="H513" t="n">
-        <v>0</v>
-      </c>
-      <c r="I513" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I513" t="n">
+        <v>165</v>
+      </c>
       <c r="J513" t="inlineStr"/>
-      <c r="K513" t="inlineStr"/>
+      <c r="K513" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -17368,10 +17776,12 @@
       <c r="I514" t="n">
         <v>161.4</v>
       </c>
-      <c r="J514" t="n">
-        <v>161.4</v>
-      </c>
-      <c r="K514" t="inlineStr"/>
+      <c r="J514" t="inlineStr"/>
+      <c r="K514" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -17400,15 +17810,15 @@
         <v>-204478.5299111699</v>
       </c>
       <c r="H515" t="n">
-        <v>0</v>
-      </c>
-      <c r="I515" t="inlineStr"/>
-      <c r="J515" t="n">
-        <v>161.4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I515" t="n">
+        <v>165</v>
+      </c>
+      <c r="J515" t="inlineStr"/>
       <c r="K515" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L515" t="n">
@@ -17444,12 +17854,10 @@
       <c r="I516" t="n">
         <v>161.6</v>
       </c>
-      <c r="J516" t="n">
-        <v>161.4</v>
-      </c>
+      <c r="J516" t="inlineStr"/>
       <c r="K516" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L516" t="n">
@@ -17480,11 +17888,17 @@
         <v>-198058.4732111699</v>
       </c>
       <c r="H517" t="n">
-        <v>0</v>
-      </c>
-      <c r="I517" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I517" t="n">
+        <v>164.8</v>
+      </c>
       <c r="J517" t="inlineStr"/>
-      <c r="K517" t="inlineStr"/>
+      <c r="K517" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -17513,11 +17927,17 @@
         <v>-198415.4732111699</v>
       </c>
       <c r="H518" t="n">
-        <v>0</v>
-      </c>
-      <c r="I518" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I518" t="n">
+        <v>167</v>
+      </c>
       <c r="J518" t="inlineStr"/>
-      <c r="K518" t="inlineStr"/>
+      <c r="K518" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -17546,11 +17966,17 @@
         <v>-198415.4732111699</v>
       </c>
       <c r="H519" t="n">
-        <v>0</v>
-      </c>
-      <c r="I519" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I519" t="n">
+        <v>164.7</v>
+      </c>
       <c r="J519" t="inlineStr"/>
-      <c r="K519" t="inlineStr"/>
+      <c r="K519" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -17579,11 +18005,17 @@
         <v>-198415.4732111699</v>
       </c>
       <c r="H520" t="n">
-        <v>0</v>
-      </c>
-      <c r="I520" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I520" t="n">
+        <v>164.7</v>
+      </c>
       <c r="J520" t="inlineStr"/>
-      <c r="K520" t="inlineStr"/>
+      <c r="K520" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -17612,11 +18044,17 @@
         <v>-198415.4732111699</v>
       </c>
       <c r="H521" t="n">
-        <v>0</v>
-      </c>
-      <c r="I521" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I521" t="n">
+        <v>164.7</v>
+      </c>
       <c r="J521" t="inlineStr"/>
-      <c r="K521" t="inlineStr"/>
+      <c r="K521" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -17645,11 +18083,17 @@
         <v>-196660.5063111699</v>
       </c>
       <c r="H522" t="n">
-        <v>0</v>
-      </c>
-      <c r="I522" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I522" t="n">
+        <v>164.7</v>
+      </c>
       <c r="J522" t="inlineStr"/>
-      <c r="K522" t="inlineStr"/>
+      <c r="K522" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -17678,11 +18122,17 @@
         <v>-196697.5063111699</v>
       </c>
       <c r="H523" t="n">
-        <v>0</v>
-      </c>
-      <c r="I523" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I523" t="n">
+        <v>165</v>
+      </c>
       <c r="J523" t="inlineStr"/>
-      <c r="K523" t="inlineStr"/>
+      <c r="K523" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -17711,11 +18161,17 @@
         <v>-196697.5063111699</v>
       </c>
       <c r="H524" t="n">
-        <v>0</v>
-      </c>
-      <c r="I524" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I524" t="n">
+        <v>164.6</v>
+      </c>
       <c r="J524" t="inlineStr"/>
-      <c r="K524" t="inlineStr"/>
+      <c r="K524" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -17744,11 +18200,17 @@
         <v>-203819.9417111699</v>
       </c>
       <c r="H525" t="n">
-        <v>0</v>
-      </c>
-      <c r="I525" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I525" t="n">
+        <v>164.6</v>
+      </c>
       <c r="J525" t="inlineStr"/>
-      <c r="K525" t="inlineStr"/>
+      <c r="K525" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -17777,11 +18239,17 @@
         <v>-203819.9417111699</v>
       </c>
       <c r="H526" t="n">
-        <v>0</v>
-      </c>
-      <c r="I526" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I526" t="n">
+        <v>161.3</v>
+      </c>
       <c r="J526" t="inlineStr"/>
-      <c r="K526" t="inlineStr"/>
+      <c r="K526" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -17810,11 +18278,17 @@
         <v>-203819.9417111699</v>
       </c>
       <c r="H527" t="n">
-        <v>0</v>
-      </c>
-      <c r="I527" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I527" t="n">
+        <v>161.3</v>
+      </c>
       <c r="J527" t="inlineStr"/>
-      <c r="K527" t="inlineStr"/>
+      <c r="K527" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -17843,11 +18317,17 @@
         <v>-203819.9417111699</v>
       </c>
       <c r="H528" t="n">
-        <v>0</v>
-      </c>
-      <c r="I528" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I528" t="n">
+        <v>161.3</v>
+      </c>
       <c r="J528" t="inlineStr"/>
-      <c r="K528" t="inlineStr"/>
+      <c r="K528" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -17884,7 +18364,7 @@
       <c r="J529" t="inlineStr"/>
       <c r="K529" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L529" t="n">
